--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2906959.957779761</v>
+        <v>2901550.083113728</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6204657.54290217</v>
+        <v>6204657.542902171</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8117090.660383489</v>
+        <v>8117090.66038349</v>
       </c>
     </row>
     <row r="11">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.309829763041575</v>
+        <v>6.876045741711437</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R10" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S10" t="n">
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.056421089299432</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>308.5800952649291</v>
       </c>
       <c r="C11" t="n">
-        <v>291.119145372456</v>
+        <v>291.1191453724561</v>
       </c>
       <c r="D11" t="n">
         <v>280.5292952221315</v>
@@ -1379,13 +1379,13 @@
         <v>307.7766236737103</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>332.72229934316</v>
       </c>
       <c r="G11" t="n">
-        <v>338.107580501332</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>92.41334032285906</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.56017879264773</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.3772170803328</v>
       </c>
       <c r="V11" t="n">
-        <v>253.5985120715834</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>275.0872223188616</v>
@@ -1467,7 +1467,7 @@
         <v>96.51917007633105</v>
       </c>
       <c r="I12" t="n">
-        <v>33.36904331585721</v>
+        <v>33.3690433158572</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>141.4568218448451</v>
+        <v>141.4568218448458</v>
       </c>
       <c r="T12" t="n">
-        <v>193.6055752192576</v>
+        <v>193.6055752192568</v>
       </c>
       <c r="U12" t="n">
         <v>225.8343229926903</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.6782337833863</v>
+        <v>105.6782337833858</v>
       </c>
       <c r="C13" t="n">
-        <v>93.09307470007636</v>
+        <v>93.09307470007639</v>
       </c>
       <c r="D13" t="n">
-        <v>74.46172661966088</v>
+        <v>74.46172661966091</v>
       </c>
       <c r="E13" t="n">
-        <v>72.28021624801769</v>
+        <v>72.28021624801772</v>
       </c>
       <c r="F13" t="n">
-        <v>71.26730162437977</v>
+        <v>71.2673016243798</v>
       </c>
       <c r="G13" t="n">
-        <v>92.47296086220528</v>
+        <v>92.47296086220531</v>
       </c>
       <c r="H13" t="n">
-        <v>75.94380691295572</v>
+        <v>75.94380691295575</v>
       </c>
       <c r="I13" t="n">
-        <v>40.2693458087229</v>
+        <v>40.26934580872292</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.79701047648974</v>
+        <v>41.79701047648976</v>
       </c>
       <c r="S13" t="n">
         <v>126.0873097175595</v>
       </c>
       <c r="T13" t="n">
-        <v>147.9626804304578</v>
+        <v>147.9626804304579</v>
       </c>
       <c r="U13" t="n">
         <v>212.0908681162466</v>
       </c>
       <c r="V13" t="n">
-        <v>177.9838969252765</v>
+        <v>177.9838969252766</v>
       </c>
       <c r="W13" t="n">
-        <v>212.3692519380395</v>
+        <v>212.3692519380396</v>
       </c>
       <c r="X13" t="n">
-        <v>151.5559089904857</v>
+        <v>151.555908990486</v>
       </c>
       <c r="Y13" t="n">
         <v>144.4309069535433</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>308.5800952649291</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>291.1191453724561</v>
       </c>
       <c r="D14" t="n">
-        <v>280.5292952221315</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>307.7766236737103</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>332.72229934316</v>
       </c>
       <c r="G14" t="n">
-        <v>332.7703683181947</v>
+        <v>338.107580501332</v>
       </c>
       <c r="H14" t="n">
-        <v>234.1732092537702</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19.06816042736662</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.56017879264773</v>
+        <v>65.56017879264775</v>
       </c>
       <c r="T14" t="n">
-        <v>135.6283281973159</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>176.9485936600649</v>
       </c>
       <c r="V14" t="n">
-        <v>253.5985120715834</v>
+        <v>253.5985120715835</v>
       </c>
       <c r="W14" t="n">
-        <v>275.0872223188616</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>295.5773542799176</v>
+        <v>125.356223875615</v>
       </c>
       <c r="Y14" t="n">
         <v>312.0841922575021</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7162190212862</v>
+        <v>135.7162190212853</v>
       </c>
       <c r="H15" t="n">
         <v>96.51917007633105</v>
       </c>
       <c r="I15" t="n">
-        <v>33.36904331585721</v>
+        <v>33.3690433158572</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>141.4568218448458</v>
       </c>
       <c r="T15" t="n">
-        <v>193.6055752192568</v>
+        <v>193.6055752192576</v>
       </c>
       <c r="U15" t="n">
         <v>225.8343229926903</v>
@@ -1765,25 +1765,25 @@
         <v>105.6782337833858</v>
       </c>
       <c r="C16" t="n">
-        <v>93.09307470007636</v>
+        <v>93.09307470007639</v>
       </c>
       <c r="D16" t="n">
-        <v>74.46172661966088</v>
+        <v>74.46172661966091</v>
       </c>
       <c r="E16" t="n">
-        <v>72.28021624801769</v>
+        <v>72.28021624801772</v>
       </c>
       <c r="F16" t="n">
-        <v>71.26730162437977</v>
+        <v>71.2673016243798</v>
       </c>
       <c r="G16" t="n">
-        <v>92.47296086220528</v>
+        <v>92.47296086220531</v>
       </c>
       <c r="H16" t="n">
-        <v>75.94380691295572</v>
+        <v>75.94380691295575</v>
       </c>
       <c r="I16" t="n">
-        <v>40.2693458087229</v>
+        <v>40.26934580872292</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.79701047648974</v>
+        <v>41.79701047648976</v>
       </c>
       <c r="S16" t="n">
-        <v>126.0873097175595</v>
+        <v>126.0873097175593</v>
       </c>
       <c r="T16" t="n">
-        <v>147.9626804304578</v>
+        <v>147.9626804304579</v>
       </c>
       <c r="U16" t="n">
-        <v>212.0908681162469</v>
+        <v>212.0908681162464</v>
       </c>
       <c r="V16" t="n">
-        <v>177.9838969252765</v>
+        <v>177.9838969252766</v>
       </c>
       <c r="W16" t="n">
-        <v>212.3692519380395</v>
+        <v>212.3692519380396</v>
       </c>
       <c r="X16" t="n">
         <v>151.5559089904857</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.5800952649291</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.1191453724561</v>
       </c>
       <c r="D17" t="n">
         <v>280.5292952221315</v>
@@ -1856,13 +1856,13 @@
         <v>332.72229934316</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>338.107580501332</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>234.1732092537702</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>19.06816042736665</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.56017879264773</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6283281973159</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>176.9485936600649</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.5985120715834</v>
+        <v>137.6925544202946</v>
       </c>
       <c r="W17" t="n">
-        <v>42.84797205003869</v>
+        <v>275.0872223188616</v>
       </c>
       <c r="X17" t="n">
         <v>295.5773542799176</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.0841922575021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>105.6782337833858</v>
       </c>
       <c r="C19" t="n">
-        <v>93.09307470007636</v>
+        <v>93.09307470007639</v>
       </c>
       <c r="D19" t="n">
-        <v>74.46172661966088</v>
+        <v>74.46172661966091</v>
       </c>
       <c r="E19" t="n">
-        <v>72.28021624801769</v>
+        <v>72.28021624801772</v>
       </c>
       <c r="F19" t="n">
-        <v>71.26730162437977</v>
+        <v>71.2673016243798</v>
       </c>
       <c r="G19" t="n">
-        <v>92.47296086220528</v>
+        <v>92.47296086220531</v>
       </c>
       <c r="H19" t="n">
-        <v>75.94380691295572</v>
+        <v>75.94380691295575</v>
       </c>
       <c r="I19" t="n">
-        <v>40.2693458087229</v>
+        <v>40.26934580872292</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.79701047648974</v>
+        <v>41.79701047648977</v>
       </c>
       <c r="S19" t="n">
         <v>126.0873097175595</v>
       </c>
       <c r="T19" t="n">
-        <v>147.9626804304578</v>
+        <v>147.9626804304579</v>
       </c>
       <c r="U19" t="n">
         <v>212.0908681162466</v>
       </c>
       <c r="V19" t="n">
-        <v>177.9838969252765</v>
+        <v>177.9838969252766</v>
       </c>
       <c r="W19" t="n">
-        <v>212.3692519380395</v>
+        <v>212.3692519380396</v>
       </c>
       <c r="X19" t="n">
         <v>151.5559089904857</v>
@@ -2081,7 +2081,7 @@
         <v>308.5800952649291</v>
       </c>
       <c r="C20" t="n">
-        <v>291.119145372456</v>
+        <v>291.1191453724561</v>
       </c>
       <c r="D20" t="n">
         <v>280.5292952221315</v>
@@ -2096,10 +2096,10 @@
         <v>338.107580501332</v>
       </c>
       <c r="H20" t="n">
-        <v>156.577775191656</v>
+        <v>234.1732092537702</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>19.06816042736665</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>65.56017879264773</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6283281973159</v>
+        <v>84.03478053942744</v>
       </c>
       <c r="U20" t="n">
         <v>176.9485936600649</v>
       </c>
       <c r="V20" t="n">
-        <v>253.5985120715834</v>
+        <v>253.5985120715835</v>
       </c>
       <c r="W20" t="n">
-        <v>275.0872223188616</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.5773542799176</v>
       </c>
       <c r="Y20" t="n">
         <v>312.0841922575021</v>
@@ -2239,25 +2239,25 @@
         <v>105.6782337833858</v>
       </c>
       <c r="C22" t="n">
-        <v>93.09307470007636</v>
+        <v>93.09307470007639</v>
       </c>
       <c r="D22" t="n">
-        <v>74.46172661966088</v>
+        <v>74.46172661966091</v>
       </c>
       <c r="E22" t="n">
-        <v>72.28021624801769</v>
+        <v>72.28021624801772</v>
       </c>
       <c r="F22" t="n">
-        <v>71.26730162437977</v>
+        <v>71.2673016243798</v>
       </c>
       <c r="G22" t="n">
-        <v>92.47296086220528</v>
+        <v>92.47296086220531</v>
       </c>
       <c r="H22" t="n">
-        <v>75.94380691295572</v>
+        <v>75.94380691295575</v>
       </c>
       <c r="I22" t="n">
-        <v>40.2693458087229</v>
+        <v>40.26934580872292</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.79701047648974</v>
+        <v>41.79701047648977</v>
       </c>
       <c r="S22" t="n">
         <v>126.0873097175595</v>
       </c>
       <c r="T22" t="n">
-        <v>147.9626804304578</v>
+        <v>147.9626804304579</v>
       </c>
       <c r="U22" t="n">
         <v>212.0908681162466</v>
       </c>
       <c r="V22" t="n">
-        <v>177.9838969252765</v>
+        <v>177.9838969252766</v>
       </c>
       <c r="W22" t="n">
-        <v>212.3692519380395</v>
+        <v>212.3692519380396</v>
       </c>
       <c r="X22" t="n">
         <v>151.5559089904857</v>
@@ -2318,7 +2318,7 @@
         <v>308.5800952649291</v>
       </c>
       <c r="C23" t="n">
-        <v>291.119145372456</v>
+        <v>291.1191453724561</v>
       </c>
       <c r="D23" t="n">
         <v>280.5292952221315</v>
@@ -2336,7 +2336,7 @@
         <v>234.1732092537702</v>
       </c>
       <c r="I23" t="n">
-        <v>19.06816042736662</v>
+        <v>19.06816042736665</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>65.56017879264773</v>
+        <v>65.56017879264776</v>
       </c>
       <c r="T23" t="n">
         <v>135.6283281973162</v>
       </c>
       <c r="U23" t="n">
-        <v>176.9485936600648</v>
+        <v>176.9485936600657</v>
       </c>
       <c r="V23" t="n">
-        <v>253.5985120715834</v>
+        <v>253.5985120715835</v>
       </c>
       <c r="W23" t="n">
         <v>275.0872223188616</v>
@@ -2476,25 +2476,25 @@
         <v>105.6782337833858</v>
       </c>
       <c r="C25" t="n">
-        <v>93.09307470007636</v>
+        <v>93.09307470007639</v>
       </c>
       <c r="D25" t="n">
-        <v>74.46172661966088</v>
+        <v>74.46172661966091</v>
       </c>
       <c r="E25" t="n">
-        <v>72.28021624801769</v>
+        <v>72.28021624801772</v>
       </c>
       <c r="F25" t="n">
-        <v>71.26730162437977</v>
+        <v>71.2673016243798</v>
       </c>
       <c r="G25" t="n">
-        <v>92.47296086220577</v>
+        <v>92.47296086220531</v>
       </c>
       <c r="H25" t="n">
-        <v>75.94380691295572</v>
+        <v>75.94380691295575</v>
       </c>
       <c r="I25" t="n">
-        <v>40.2693458087229</v>
+        <v>40.26934580872292</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.79701047648974</v>
+        <v>41.79701047648977</v>
       </c>
       <c r="S25" t="n">
         <v>126.0873097175595</v>
       </c>
       <c r="T25" t="n">
-        <v>147.9626804304578</v>
+        <v>147.9626804304579</v>
       </c>
       <c r="U25" t="n">
         <v>212.0908681162466</v>
       </c>
       <c r="V25" t="n">
-        <v>177.9838969252765</v>
+        <v>177.9838969252766</v>
       </c>
       <c r="W25" t="n">
-        <v>212.3692519380395</v>
+        <v>212.3692519380396</v>
       </c>
       <c r="X25" t="n">
         <v>151.5559089904857</v>
@@ -2570,10 +2570,10 @@
         <v>387.3288200540814</v>
       </c>
       <c r="H26" t="n">
-        <v>283.3944488065198</v>
+        <v>283.3944488065196</v>
       </c>
       <c r="I26" t="n">
-        <v>68.28939998011636</v>
+        <v>68.28939998011619</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>96.51917007633105</v>
       </c>
       <c r="I27" t="n">
-        <v>33.36904331585721</v>
+        <v>33.3690433158572</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>118.6906943009724</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>121.5014558007671</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>141.6942004149547</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>74.55701508162549</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>89.49058536147233</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.01825002923917</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>175.3085492703089</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>197.1839199832073</v>
@@ -2776,7 +2776,7 @@
         <v>261.590491490789</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>200.7771485432351</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>357.8013348176785</v>
+        <v>357.8013348176786</v>
       </c>
       <c r="C29" t="n">
-        <v>340.3403849252055</v>
+        <v>340.3403849252056</v>
       </c>
       <c r="D29" t="n">
-        <v>329.7505347748809</v>
+        <v>329.750534774881</v>
       </c>
       <c r="E29" t="n">
-        <v>356.9978632264597</v>
+        <v>356.9978632264598</v>
       </c>
       <c r="F29" t="n">
-        <v>381.9435388959094</v>
+        <v>381.9435388959095</v>
       </c>
       <c r="G29" t="n">
-        <v>387.3288200540814</v>
+        <v>387.3288200540815</v>
       </c>
       <c r="H29" t="n">
         <v>283.3944488065196</v>
       </c>
       <c r="I29" t="n">
-        <v>68.28939998011604</v>
+        <v>68.2893999801161</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>114.7814183453972</v>
       </c>
       <c r="T29" t="n">
-        <v>184.8495677500654</v>
+        <v>184.849567750065</v>
       </c>
       <c r="U29" t="n">
         <v>226.169833212815</v>
@@ -2855,10 +2855,10 @@
         <v>324.308461871611</v>
       </c>
       <c r="X29" t="n">
-        <v>344.798593832667</v>
+        <v>344.7985938326671</v>
       </c>
       <c r="Y29" t="n">
-        <v>361.3054318102515</v>
+        <v>361.3054318102516</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>154.8994733361353</v>
       </c>
       <c r="C31" t="n">
-        <v>142.3143142528258</v>
+        <v>142.3143142528259</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>120.4885411771292</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>141.6942004149548</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.01825002923917</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>175.3085492703089</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>197.1839199832073</v>
       </c>
       <c r="U31" t="n">
-        <v>261.312107668996</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>227.205136478026</v>
       </c>
       <c r="W31" t="n">
-        <v>71.75562759107152</v>
+        <v>196.084265507628</v>
       </c>
       <c r="X31" t="n">
-        <v>200.7771485432351</v>
+        <v>200.7771485432352</v>
       </c>
       <c r="Y31" t="n">
         <v>193.6521465062928</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>113.0024477911014</v>
+        <v>113.0024477911023</v>
       </c>
       <c r="T32" t="n">
         <v>183.0705971957698</v>
       </c>
       <c r="U32" t="n">
-        <v>224.3908626585196</v>
+        <v>224.3908626585182</v>
       </c>
       <c r="V32" t="n">
         <v>301.0407810700373</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.1205027818397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.9039956181148</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>119.7224852464716</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>118.7095706228337</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.23927947494363</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.5295787160134</v>
+        <v>90.15315008234566</v>
       </c>
       <c r="T34" t="n">
         <v>195.4049494289117</v>
@@ -3244,13 +3244,13 @@
         <v>259.5331371147005</v>
       </c>
       <c r="V34" t="n">
-        <v>95.4937080269376</v>
+        <v>225.4261659237304</v>
       </c>
       <c r="W34" t="n">
         <v>259.8115209364934</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>198.9981779889396</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>308.5800952649291</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,10 +3275,10 @@
         <v>307.7766236737103</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>332.7222993431599</v>
       </c>
       <c r="G35" t="n">
-        <v>338.107580501332</v>
+        <v>338.1075805013319</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.56017879264778</v>
+        <v>65.56017879264772</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>135.6283281973159</v>
       </c>
       <c r="U35" t="n">
         <v>176.9485936600649</v>
       </c>
       <c r="V35" t="n">
-        <v>253.5985120715835</v>
+        <v>253.5985120715834</v>
       </c>
       <c r="W35" t="n">
-        <v>173.0910190891831</v>
+        <v>13.32048681363603</v>
       </c>
       <c r="X35" t="n">
-        <v>295.5773542799176</v>
+        <v>295.5773542799175</v>
       </c>
       <c r="Y35" t="n">
         <v>312.0841922575021</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.6782337833859</v>
+        <v>105.6782337833858</v>
       </c>
       <c r="C37" t="n">
-        <v>93.0930747000764</v>
+        <v>93.09307470007634</v>
       </c>
       <c r="D37" t="n">
-        <v>74.46172661966092</v>
+        <v>74.46172661966087</v>
       </c>
       <c r="E37" t="n">
-        <v>72.28021624801774</v>
+        <v>72.28021624801768</v>
       </c>
       <c r="F37" t="n">
-        <v>71.26730162437981</v>
+        <v>71.26730162437975</v>
       </c>
       <c r="G37" t="n">
-        <v>92.47296086220533</v>
+        <v>92.47296086220527</v>
       </c>
       <c r="H37" t="n">
-        <v>75.94380691295576</v>
+        <v>75.94380691295571</v>
       </c>
       <c r="I37" t="n">
-        <v>40.26934580872293</v>
+        <v>40.26934580872287</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.79701047648965</v>
+        <v>41.79701047648972</v>
       </c>
       <c r="S37" t="n">
         <v>126.0873097175595</v>
       </c>
       <c r="T37" t="n">
-        <v>147.9626804304579</v>
+        <v>147.9626804304578</v>
       </c>
       <c r="U37" t="n">
-        <v>212.0908681162462</v>
+        <v>212.0908681162466</v>
       </c>
       <c r="V37" t="n">
-        <v>177.9838969252766</v>
+        <v>177.9838969252765</v>
       </c>
       <c r="W37" t="n">
-        <v>212.3692519380396</v>
+        <v>212.3692519380395</v>
       </c>
       <c r="X37" t="n">
-        <v>151.5559089904857</v>
+        <v>151.5559089904856</v>
       </c>
       <c r="Y37" t="n">
         <v>144.4309069535433</v>
@@ -3503,25 +3503,25 @@
         <v>308.5800952649291</v>
       </c>
       <c r="C38" t="n">
-        <v>291.1191453724561</v>
+        <v>291.119145372456</v>
       </c>
       <c r="D38" t="n">
         <v>280.5292952221315</v>
       </c>
       <c r="E38" t="n">
-        <v>307.7766236737103</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>332.72229934316</v>
+        <v>332.7222993431599</v>
       </c>
       <c r="G38" t="n">
-        <v>23.25614826044037</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>19.06816042736664</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>65.56017879264778</v>
+        <v>65.56017879264772</v>
       </c>
       <c r="T38" t="n">
-        <v>135.628328197316</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>176.9485936600649</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>173.645068301331</v>
       </c>
       <c r="W38" t="n">
-        <v>275.0872223188616</v>
+        <v>275.0872223188615</v>
       </c>
       <c r="X38" t="n">
-        <v>295.5773542799176</v>
+        <v>295.5773542799175</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>312.0841922575021</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.6782337833859</v>
+        <v>105.6782337833858</v>
       </c>
       <c r="C40" t="n">
-        <v>93.0930747000764</v>
+        <v>93.09307470007634</v>
       </c>
       <c r="D40" t="n">
-        <v>74.46172661966092</v>
+        <v>74.46172661966087</v>
       </c>
       <c r="E40" t="n">
-        <v>72.28021624801774</v>
+        <v>72.28021624801768</v>
       </c>
       <c r="F40" t="n">
-        <v>71.26730162437981</v>
+        <v>71.26730162437975</v>
       </c>
       <c r="G40" t="n">
-        <v>92.47296086220533</v>
+        <v>92.47296086220526</v>
       </c>
       <c r="H40" t="n">
-        <v>75.94380691295576</v>
+        <v>75.94380691295571</v>
       </c>
       <c r="I40" t="n">
-        <v>40.26934580872293</v>
+        <v>40.26934580872287</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.79701047648977</v>
+        <v>41.79701047648972</v>
       </c>
       <c r="S40" t="n">
         <v>126.0873097175595</v>
       </c>
       <c r="T40" t="n">
-        <v>147.9626804304579</v>
+        <v>147.9626804304578</v>
       </c>
       <c r="U40" t="n">
-        <v>212.0908681162466</v>
+        <v>212.0908681162471</v>
       </c>
       <c r="V40" t="n">
-        <v>177.9838969252766</v>
+        <v>177.9838969252765</v>
       </c>
       <c r="W40" t="n">
-        <v>212.3692519380396</v>
+        <v>212.3692519380395</v>
       </c>
       <c r="X40" t="n">
-        <v>151.5559089904857</v>
+        <v>151.5559089904856</v>
       </c>
       <c r="Y40" t="n">
         <v>144.4309069535433</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>333.5126021107312</v>
+        <v>333.5126021107311</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>316.0516522182581</v>
       </c>
       <c r="D41" t="n">
         <v>305.4618020679335</v>
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>61.07664893258743</v>
       </c>
       <c r="G41" t="n">
         <v>363.040087347134</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>259.1057160995721</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>44.00066727316862</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.49268563844976</v>
       </c>
       <c r="T41" t="n">
-        <v>160.560835043118</v>
+        <v>160.5608350431179</v>
       </c>
       <c r="U41" t="n">
-        <v>201.881100505867</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>278.5310189173855</v>
+        <v>278.5310189173854</v>
       </c>
       <c r="W41" t="n">
-        <v>300.0197291646636</v>
+        <v>300.0197291646635</v>
       </c>
       <c r="X41" t="n">
-        <v>231.8295705528649</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.0166991033042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>135.7162190212862</v>
       </c>
       <c r="H42" t="n">
-        <v>96.51917007633105</v>
+        <v>96.51917007633018</v>
       </c>
       <c r="I42" t="n">
         <v>33.3690433158572</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.6107406291879</v>
+        <v>130.6107406291878</v>
       </c>
       <c r="C43" t="n">
-        <v>61.77529652169643</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>99.3942334654629</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21272309381978</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>117.4054677080074</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>65.20185265452491</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.7295173222918</v>
+        <v>66.72951732229174</v>
       </c>
       <c r="S43" t="n">
-        <v>151.0198165633616</v>
+        <v>86.32880193061025</v>
       </c>
       <c r="T43" t="n">
-        <v>172.8951872762599</v>
+        <v>172.8951872762598</v>
       </c>
       <c r="U43" t="n">
         <v>237.0233749620486</v>
       </c>
       <c r="V43" t="n">
-        <v>202.9164037710786</v>
+        <v>202.9164037710785</v>
       </c>
       <c r="W43" t="n">
-        <v>237.3017587838416</v>
+        <v>237.3017587838415</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>176.4884158362877</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.3634137993454</v>
+        <v>169.3634137993453</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>316.0516522182581</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.288446111151758</v>
+        <v>305.4618020679334</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>363.0400873471339</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1057160995722</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.49268563844981</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>201.881100505867</v>
+        <v>163.3388689498966</v>
       </c>
       <c r="V44" t="n">
-        <v>278.5310189173855</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>300.0197291646636</v>
+        <v>300.0197291646635</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>320.5098611257195</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.0166991033042</v>
+        <v>337.0166991033041</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>117.3119440971179</v>
+        <v>117.3119440971178</v>
       </c>
       <c r="C45" t="n">
-        <v>123.4872594355663</v>
+        <v>123.4872594355662</v>
       </c>
       <c r="D45" t="n">
-        <v>98.22382601188936</v>
+        <v>98.22382601188924</v>
       </c>
       <c r="E45" t="n">
-        <v>108.4238409026515</v>
+        <v>108.4238409026514</v>
       </c>
       <c r="F45" t="n">
-        <v>95.84797284063448</v>
+        <v>95.84797284063437</v>
       </c>
       <c r="G45" t="n">
-        <v>86.49497946853676</v>
+        <v>86.49497946853664</v>
       </c>
       <c r="H45" t="n">
-        <v>47.29793052358166</v>
+        <v>47.29793052358155</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>92.2355822920964</v>
+        <v>92.23558229209628</v>
       </c>
       <c r="T45" t="n">
         <v>144.3843356665083</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6130834399405</v>
+        <v>176.6130834399402</v>
       </c>
       <c r="V45" t="n">
-        <v>183.5793475966759</v>
+        <v>183.5793475966757</v>
       </c>
       <c r="W45" t="n">
-        <v>202.4737436081702</v>
+        <v>202.4737436081701</v>
       </c>
       <c r="X45" t="n">
-        <v>156.5517456507281</v>
+        <v>156.551745650728</v>
       </c>
       <c r="Y45" t="n">
-        <v>156.461456224555</v>
+        <v>156.4614562245549</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.6107406291879</v>
+        <v>130.6107406291878</v>
       </c>
       <c r="C46" t="n">
-        <v>118.0255815458784</v>
+        <v>118.0255815458783</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.21272309381966</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>96.19980847018174</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>117.4054677080073</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>65.20185265452486</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.7295173222918</v>
+        <v>66.72951732229168</v>
       </c>
       <c r="S46" t="n">
-        <v>151.0198165633616</v>
+        <v>151.0198165633614</v>
       </c>
       <c r="T46" t="n">
-        <v>172.8951872762599</v>
+        <v>172.8951872762598</v>
       </c>
       <c r="U46" t="n">
-        <v>237.0233749620486</v>
+        <v>237.0233749620485</v>
       </c>
       <c r="V46" t="n">
-        <v>202.9164037710786</v>
+        <v>202.9164037710785</v>
       </c>
       <c r="W46" t="n">
-        <v>237.3017587838416</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>158.3679057776451</v>
+        <v>19.6498126349545</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.3634137993454</v>
+        <v>169.3634137993453</v>
       </c>
     </row>
   </sheetData>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N8" t="n">
         <v>13.8896123982571</v>
-      </c>
-      <c r="N8" t="n">
-        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
@@ -4826,28 +4826,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,10 +4887,10 @@
         <v>7.082327113962777</v>
       </c>
       <c r="L9" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N9" t="n">
         <v>20.69689768255142</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S9" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T9" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U9" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="V9" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="W9" t="n">
         <v>20.55868221764227</v>
-      </c>
-      <c r="S9" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="T9" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="U9" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="V9" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,7 +4969,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
         <v>20.69689768255142</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="R10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U10" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="R10" t="n">
+      <c r="V10" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="W10" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="S10" t="n">
+      <c r="X10" t="n">
         <v>6.667680719235332</v>
       </c>
-      <c r="T10" t="n">
+      <c r="Y10" t="n">
         <v>6.667680719235332</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6.667680719235332</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6.667680719235332</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.667680719235332</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1374.95787908359</v>
+        <v>1276.171392739114</v>
       </c>
       <c r="C11" t="n">
-        <v>1080.89813628313</v>
+        <v>982.1116499386537</v>
       </c>
       <c r="D11" t="n">
-        <v>797.53521181633</v>
+        <v>698.7487254718542</v>
       </c>
       <c r="E11" t="n">
-        <v>486.6497333580368</v>
+        <v>387.863247013561</v>
       </c>
       <c r="F11" t="n">
-        <v>486.6497333580368</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="G11" t="n">
-        <v>145.1269247708327</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="H11" t="n">
         <v>51.78011636390437</v>
@@ -5039,52 +5039,52 @@
         <v>51.78011636390437</v>
       </c>
       <c r="J11" t="n">
-        <v>128.0992358466344</v>
+        <v>295.5048848669875</v>
       </c>
       <c r="K11" t="n">
-        <v>614.124288951871</v>
+        <v>781.5299379722242</v>
       </c>
       <c r="L11" t="n">
-        <v>855.8733697412393</v>
+        <v>1023.279018761593</v>
       </c>
       <c r="M11" t="n">
-        <v>1156.535239624586</v>
+        <v>1323.940888644939</v>
       </c>
       <c r="N11" t="n">
-        <v>1466.675941273786</v>
+        <v>1634.081590294139</v>
       </c>
       <c r="O11" t="n">
-        <v>1746.197750038786</v>
+        <v>2069.678465189274</v>
       </c>
       <c r="P11" t="n">
-        <v>2268.842867084923</v>
+        <v>2273.742861145643</v>
       </c>
       <c r="Q11" t="n">
-        <v>2548.236735492261</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="R11" t="n">
         <v>2589.005818195219</v>
       </c>
       <c r="S11" t="n">
-        <v>2522.783415374362</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="T11" t="n">
-        <v>2522.783415374362</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="U11" t="n">
-        <v>2522.783415374362</v>
+        <v>2479.533881750438</v>
       </c>
       <c r="V11" t="n">
-        <v>2266.623302170743</v>
+        <v>2479.533881750438</v>
       </c>
       <c r="W11" t="n">
-        <v>1988.75742104058</v>
+        <v>2201.668000620275</v>
       </c>
       <c r="X11" t="n">
-        <v>1690.194436919451</v>
+        <v>1903.105016499146</v>
       </c>
       <c r="Y11" t="n">
-        <v>1374.95787908359</v>
+        <v>1587.868458663285</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>51.78011636390437</v>
       </c>
       <c r="J12" t="n">
-        <v>203.2475391195202</v>
+        <v>203.2475391195203</v>
       </c>
       <c r="K12" t="n">
-        <v>326.9297484573669</v>
+        <v>385.1471093254331</v>
       </c>
       <c r="L12" t="n">
-        <v>576.2874848125302</v>
+        <v>597.775644267971</v>
       </c>
       <c r="M12" t="n">
-        <v>1217.066424815847</v>
+        <v>865.259983678101</v>
       </c>
       <c r="N12" t="n">
         <v>1506.038923681418</v>
@@ -5145,7 +5145,7 @@
         <v>2589.005818195219</v>
       </c>
       <c r="S12" t="n">
-        <v>2446.120139564062</v>
+        <v>2446.120139564061</v>
       </c>
       <c r="T12" t="n">
         <v>2250.558952473903</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8189373497819</v>
+        <v>576.818937349782</v>
       </c>
       <c r="C13" t="n">
-        <v>482.7855285618259</v>
+        <v>482.785528561826</v>
       </c>
       <c r="D13" t="n">
         <v>407.5716632894412</v>
       </c>
       <c r="E13" t="n">
-        <v>334.561343846999</v>
+        <v>334.5613438469991</v>
       </c>
       <c r="F13" t="n">
         <v>262.5741704890397</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1671393150949</v>
+        <v>169.167139315095</v>
       </c>
       <c r="H13" t="n">
-        <v>92.45622324140226</v>
+        <v>92.45622324140227</v>
       </c>
       <c r="I13" t="n">
         <v>51.78011636390437</v>
@@ -5200,13 +5200,13 @@
         <v>128.2562339174206</v>
       </c>
       <c r="K13" t="n">
-        <v>336.5402226220471</v>
+        <v>336.540222622047</v>
       </c>
       <c r="L13" t="n">
-        <v>638.0683095366933</v>
+        <v>638.0683095366932</v>
       </c>
       <c r="M13" t="n">
-        <v>962.3858506895623</v>
+        <v>962.3858506895622</v>
       </c>
       <c r="N13" t="n">
         <v>1286.172040265125</v>
@@ -5239,10 +5239,10 @@
         <v>982.5412098017165</v>
       </c>
       <c r="X13" t="n">
-        <v>829.4544330436502</v>
+        <v>829.4544330436498</v>
       </c>
       <c r="Y13" t="n">
-        <v>683.5646280400711</v>
+        <v>683.5646280400707</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1237.95956777317</v>
+        <v>1334.331276859519</v>
       </c>
       <c r="C14" t="n">
-        <v>1237.95956777317</v>
+        <v>1040.271534059058</v>
       </c>
       <c r="D14" t="n">
-        <v>954.5966433063709</v>
+        <v>1040.271534059058</v>
       </c>
       <c r="E14" t="n">
-        <v>643.7111648480776</v>
+        <v>729.3860556007651</v>
       </c>
       <c r="F14" t="n">
-        <v>643.7111648480776</v>
+        <v>393.3029249511084</v>
       </c>
       <c r="G14" t="n">
-        <v>307.5794796781839</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="H14" t="n">
-        <v>71.0408844723555</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="I14" t="n">
         <v>51.78011636390437</v>
       </c>
       <c r="J14" t="n">
-        <v>262.741932536479</v>
+        <v>128.0992358466344</v>
       </c>
       <c r="K14" t="n">
-        <v>748.7669856417156</v>
+        <v>293.220330506418</v>
       </c>
       <c r="L14" t="n">
-        <v>1389.545925645032</v>
+        <v>933.9992705097345</v>
       </c>
       <c r="M14" t="n">
-        <v>1690.207795528379</v>
+        <v>1574.778210513051</v>
       </c>
       <c r="N14" t="n">
-        <v>2000.348497177578</v>
+        <v>1884.918912162251</v>
       </c>
       <c r="O14" t="n">
-        <v>2279.870305942579</v>
+        <v>2239.101223239621</v>
       </c>
       <c r="P14" t="n">
-        <v>2483.934701898948</v>
+        <v>2443.165619195991</v>
       </c>
       <c r="Q14" t="n">
-        <v>2589.005818195219</v>
+        <v>2548.236735492261</v>
       </c>
       <c r="R14" t="n">
         <v>2589.005818195219</v>
@@ -5306,22 +5306,22 @@
         <v>2522.783415374362</v>
       </c>
       <c r="T14" t="n">
-        <v>2385.785104063943</v>
+        <v>2522.783415374362</v>
       </c>
       <c r="U14" t="n">
-        <v>2385.785104063943</v>
+        <v>2344.047462182378</v>
       </c>
       <c r="V14" t="n">
-        <v>2129.624990860323</v>
+        <v>2087.887348978758</v>
       </c>
       <c r="W14" t="n">
-        <v>1851.75910973016</v>
+        <v>2087.887348978758</v>
       </c>
       <c r="X14" t="n">
-        <v>1553.196125609031</v>
+        <v>1961.264900619551</v>
       </c>
       <c r="Y14" t="n">
-        <v>1237.95956777317</v>
+        <v>1646.02834278369</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>949.2268737530093</v>
+        <v>949.2268737530082</v>
       </c>
       <c r="C15" t="n">
-        <v>774.7738444718823</v>
+        <v>774.7738444718813</v>
       </c>
       <c r="D15" t="n">
-        <v>625.839434810631</v>
+        <v>625.83943481063</v>
       </c>
       <c r="E15" t="n">
-        <v>466.6019798051755</v>
+        <v>466.6019798051745</v>
       </c>
       <c r="F15" t="n">
-        <v>320.0674218320604</v>
+        <v>320.0674218320595</v>
       </c>
       <c r="G15" t="n">
         <v>182.9803319115693</v>
@@ -5355,25 +5355,25 @@
         <v>51.78011636390437</v>
       </c>
       <c r="J15" t="n">
-        <v>118.938568486428</v>
+        <v>78.41741413251552</v>
       </c>
       <c r="K15" t="n">
-        <v>242.6207778242747</v>
+        <v>202.0996234703623</v>
       </c>
       <c r="L15" t="n">
-        <v>822.3812546172371</v>
+        <v>414.7281584129001</v>
       </c>
       <c r="M15" t="n">
-        <v>1463.160194620554</v>
+        <v>1055.507098416217</v>
       </c>
       <c r="N15" t="n">
-        <v>2103.93913462387</v>
+        <v>1696.286038419533</v>
       </c>
       <c r="O15" t="n">
-        <v>2346.072720527062</v>
+        <v>2328.343320406687</v>
       </c>
       <c r="P15" t="n">
-        <v>2521.073203845108</v>
+        <v>2503.343803724733</v>
       </c>
       <c r="Q15" t="n">
         <v>2588.137196058475</v>
@@ -5385,22 +5385,22 @@
         <v>2446.120139564061</v>
       </c>
       <c r="T15" t="n">
-        <v>2250.558952473903</v>
+        <v>2250.558952473902</v>
       </c>
       <c r="U15" t="n">
-        <v>2022.443474703508</v>
+        <v>2022.443474703507</v>
       </c>
       <c r="V15" t="n">
-        <v>1787.291366471766</v>
+        <v>1787.291366471765</v>
       </c>
       <c r="W15" t="n">
-        <v>1533.054009743564</v>
+        <v>1533.054009743563</v>
       </c>
       <c r="X15" t="n">
-        <v>1325.202509538031</v>
+        <v>1325.20250953803</v>
       </c>
       <c r="Y15" t="n">
-        <v>1117.442210773077</v>
+        <v>1117.442210773076</v>
       </c>
     </row>
     <row r="16">
@@ -5419,22 +5419,22 @@
         <v>407.5716632894414</v>
       </c>
       <c r="E16" t="n">
-        <v>334.561343846999</v>
+        <v>334.5613438469992</v>
       </c>
       <c r="F16" t="n">
-        <v>262.5741704890397</v>
+        <v>262.5741704890398</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1671393150949</v>
+        <v>169.167139315095</v>
       </c>
       <c r="H16" t="n">
-        <v>92.45622324140226</v>
+        <v>92.45622324140227</v>
       </c>
       <c r="I16" t="n">
         <v>51.78011636390437</v>
       </c>
       <c r="J16" t="n">
-        <v>128.2562339174205</v>
+        <v>128.2562339174206</v>
       </c>
       <c r="K16" t="n">
         <v>336.5402226220469</v>
@@ -5473,7 +5473,7 @@
         <v>1197.055605698726</v>
       </c>
       <c r="W16" t="n">
-        <v>982.5412098017163</v>
+        <v>982.5412098017164</v>
       </c>
       <c r="X16" t="n">
         <v>829.4544330436499</v>
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>982.1116499386537</v>
+        <v>1873.493564640598</v>
       </c>
       <c r="C17" t="n">
-        <v>982.1116499386537</v>
+        <v>1579.433821840138</v>
       </c>
       <c r="D17" t="n">
-        <v>698.7487254718542</v>
+        <v>1296.070897373338</v>
       </c>
       <c r="E17" t="n">
-        <v>387.863247013561</v>
+        <v>985.1854189150447</v>
       </c>
       <c r="F17" t="n">
-        <v>51.78011636390437</v>
+        <v>649.1022882653881</v>
       </c>
       <c r="G17" t="n">
-        <v>51.78011636390437</v>
+        <v>307.579479678184</v>
       </c>
       <c r="H17" t="n">
-        <v>51.78011636390437</v>
+        <v>71.04088447235553</v>
       </c>
       <c r="I17" t="n">
         <v>51.78011636390437</v>
       </c>
       <c r="J17" t="n">
-        <v>295.5048848669875</v>
+        <v>128.0992358466344</v>
       </c>
       <c r="K17" t="n">
-        <v>556.7188512794309</v>
+        <v>293.2203305064179</v>
       </c>
       <c r="L17" t="n">
-        <v>798.4679320687992</v>
+        <v>534.9694112957862</v>
       </c>
       <c r="M17" t="n">
-        <v>1439.246872072116</v>
+        <v>1175.748351299103</v>
       </c>
       <c r="N17" t="n">
-        <v>1749.387573721315</v>
+        <v>1816.52729130242</v>
       </c>
       <c r="O17" t="n">
-        <v>2028.909382486316</v>
+        <v>2096.04910006742</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.973778442685</v>
+        <v>2300.11349602379</v>
       </c>
       <c r="Q17" t="n">
         <v>2548.236735492261</v>
@@ -5540,25 +5540,25 @@
         <v>2589.005818195219</v>
       </c>
       <c r="S17" t="n">
-        <v>2522.783415374362</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="T17" t="n">
-        <v>2385.785104063943</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="U17" t="n">
-        <v>2207.049150871958</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="V17" t="n">
-        <v>1950.889037668338</v>
+        <v>2449.922429891891</v>
       </c>
       <c r="W17" t="n">
-        <v>1907.608257819814</v>
+        <v>2172.056548761727</v>
       </c>
       <c r="X17" t="n">
-        <v>1609.045273698685</v>
+        <v>1873.493564640598</v>
       </c>
       <c r="Y17" t="n">
-        <v>1293.808715862825</v>
+        <v>1873.493564640598</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>51.78011636390437</v>
       </c>
       <c r="J18" t="n">
-        <v>78.41741413251549</v>
+        <v>203.2475391195202</v>
       </c>
       <c r="K18" t="n">
-        <v>463.920208112815</v>
+        <v>588.7503330998197</v>
       </c>
       <c r="L18" t="n">
-        <v>1043.680684905778</v>
+        <v>801.3788680423576</v>
       </c>
       <c r="M18" t="n">
-        <v>1311.165024315907</v>
+        <v>1442.157808045674</v>
       </c>
       <c r="N18" t="n">
-        <v>1951.943964319224</v>
+        <v>2082.936748048991</v>
       </c>
       <c r="O18" t="n">
-        <v>2194.077550222416</v>
+        <v>2325.070333952182</v>
       </c>
       <c r="P18" t="n">
-        <v>2521.073203845108</v>
+        <v>2500.070817270228</v>
       </c>
       <c r="Q18" t="n">
         <v>2588.137196058475</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8189373497819</v>
+        <v>576.818937349782</v>
       </c>
       <c r="C19" t="n">
-        <v>482.7855285618259</v>
+        <v>482.785528561826</v>
       </c>
       <c r="D19" t="n">
         <v>407.5716632894412</v>
       </c>
       <c r="E19" t="n">
-        <v>334.561343846999</v>
+        <v>334.5613438469991</v>
       </c>
       <c r="F19" t="n">
         <v>262.5741704890397</v>
       </c>
       <c r="G19" t="n">
-        <v>169.1671393150949</v>
+        <v>169.167139315095</v>
       </c>
       <c r="H19" t="n">
-        <v>92.45622324140226</v>
+        <v>92.45622324140228</v>
       </c>
       <c r="I19" t="n">
         <v>51.78011636390437</v>
@@ -5674,13 +5674,13 @@
         <v>128.2562339174206</v>
       </c>
       <c r="K19" t="n">
-        <v>336.5402226220471</v>
+        <v>336.540222622047</v>
       </c>
       <c r="L19" t="n">
-        <v>638.0683095366933</v>
+        <v>638.0683095366935</v>
       </c>
       <c r="M19" t="n">
-        <v>962.3858506895623</v>
+        <v>962.3858506895625</v>
       </c>
       <c r="N19" t="n">
         <v>1286.172040265125</v>
@@ -5689,10 +5689,10 @@
         <v>1574.828849010227</v>
       </c>
       <c r="P19" t="n">
-        <v>1808.899315507484</v>
+        <v>1808.899315507485</v>
       </c>
       <c r="Q19" t="n">
-        <v>1910.107894250271</v>
+        <v>1910.107894250272</v>
       </c>
       <c r="R19" t="n">
         <v>1867.888691748767</v>
@@ -5701,7 +5701,7 @@
         <v>1740.527772842141</v>
       </c>
       <c r="T19" t="n">
-        <v>1591.070519882082</v>
+        <v>1591.070519882083</v>
       </c>
       <c r="U19" t="n">
         <v>1376.837319764662</v>
@@ -5710,13 +5710,13 @@
         <v>1197.055605698726</v>
       </c>
       <c r="W19" t="n">
-        <v>982.541209801716</v>
+        <v>982.5412098017161</v>
       </c>
       <c r="X19" t="n">
-        <v>829.4544330436497</v>
+        <v>829.4544330436498</v>
       </c>
       <c r="Y19" t="n">
-        <v>683.5646280400706</v>
+        <v>683.5646280400707</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1790.746713827772</v>
+        <v>1888.386708261591</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.686971027311</v>
+        <v>1594.32696546113</v>
       </c>
       <c r="D20" t="n">
-        <v>1213.324046560512</v>
+        <v>1310.96404099433</v>
       </c>
       <c r="E20" t="n">
-        <v>902.4385681022183</v>
+        <v>1000.078562536037</v>
       </c>
       <c r="F20" t="n">
-        <v>566.3554374525617</v>
+        <v>663.9954318863806</v>
       </c>
       <c r="G20" t="n">
-        <v>224.8326288653576</v>
+        <v>322.4726232991766</v>
       </c>
       <c r="H20" t="n">
-        <v>66.67325998489694</v>
+        <v>85.93402809334812</v>
       </c>
       <c r="I20" t="n">
-        <v>66.67325998489694</v>
+        <v>66.67325998489696</v>
       </c>
       <c r="J20" t="n">
         <v>142.992379467627</v>
       </c>
       <c r="K20" t="n">
-        <v>629.0174325728635</v>
+        <v>308.1134741274105</v>
       </c>
       <c r="L20" t="n">
-        <v>870.7665133622319</v>
+        <v>963.3471573217248</v>
       </c>
       <c r="M20" t="n">
-        <v>1171.428383245579</v>
+        <v>1709.027425362976</v>
       </c>
       <c r="N20" t="n">
-        <v>1914.542540062642</v>
+        <v>2452.141582180039</v>
       </c>
       <c r="O20" t="n">
-        <v>2571.056528277761</v>
+        <v>2983.75840428925</v>
       </c>
       <c r="P20" t="n">
-        <v>3093.701645323898</v>
+        <v>3187.82280024562</v>
       </c>
       <c r="Q20" t="n">
-        <v>3333.662999244847</v>
+        <v>3292.89391654189</v>
       </c>
       <c r="R20" t="n">
-        <v>3333.662999244847</v>
+        <v>3333.662999244848</v>
       </c>
       <c r="S20" t="n">
-        <v>3267.440596423991</v>
+        <v>3333.662999244848</v>
       </c>
       <c r="T20" t="n">
-        <v>3130.442285113571</v>
+        <v>3248.779382538356</v>
       </c>
       <c r="U20" t="n">
-        <v>2951.706331921586</v>
+        <v>3070.043429346371</v>
       </c>
       <c r="V20" t="n">
-        <v>2695.546218717966</v>
+        <v>2813.883316142751</v>
       </c>
       <c r="W20" t="n">
-        <v>2417.680337587803</v>
+        <v>2813.883316142751</v>
       </c>
       <c r="X20" t="n">
-        <v>2417.680337587803</v>
+        <v>2515.320332021622</v>
       </c>
       <c r="Y20" t="n">
-        <v>2102.443779751943</v>
+        <v>2200.083774185761</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>100.3793643443487</v>
       </c>
       <c r="I21" t="n">
-        <v>66.67325998489694</v>
+        <v>66.67325998489696</v>
       </c>
       <c r="J21" t="n">
-        <v>93.31055775350806</v>
+        <v>93.31055775350808</v>
       </c>
       <c r="K21" t="n">
         <v>216.9927670913548</v>
       </c>
       <c r="L21" t="n">
-        <v>429.6213020338926</v>
+        <v>796.7532438843173</v>
       </c>
       <c r="M21" t="n">
-        <v>697.1056414440225</v>
+        <v>1525.285596406947</v>
       </c>
       <c r="N21" t="n">
-        <v>1460.627090909711</v>
+        <v>2118.832278244863</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.684372896865</v>
+        <v>2360.965864148055</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.834969602844</v>
+        <v>2535.966347466101</v>
       </c>
       <c r="Q21" t="n">
-        <v>2603.898961816211</v>
+        <v>2603.030339679467</v>
       </c>
       <c r="R21" t="n">
         <v>2603.898961816211</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>591.7120809707744</v>
+        <v>591.7120809707747</v>
       </c>
       <c r="C22" t="n">
-        <v>497.6786721828184</v>
+        <v>497.6786721828187</v>
       </c>
       <c r="D22" t="n">
-        <v>422.4648069104337</v>
+        <v>422.4648069104339</v>
       </c>
       <c r="E22" t="n">
-        <v>349.4544874679916</v>
+        <v>349.4544874679917</v>
       </c>
       <c r="F22" t="n">
-        <v>277.4673141100322</v>
+        <v>277.4673141100323</v>
       </c>
       <c r="G22" t="n">
-        <v>184.0602829360875</v>
+        <v>184.0602829360876</v>
       </c>
       <c r="H22" t="n">
-        <v>107.3493668623948</v>
+        <v>107.3493668623949</v>
       </c>
       <c r="I22" t="n">
-        <v>66.67325998489694</v>
+        <v>66.67325998489696</v>
       </c>
       <c r="J22" t="n">
         <v>143.1493775384132</v>
@@ -5914,46 +5914,46 @@
         <v>351.4333662430396</v>
       </c>
       <c r="L22" t="n">
-        <v>652.9614531576854</v>
+        <v>652.9614531576857</v>
       </c>
       <c r="M22" t="n">
-        <v>977.2789943105544</v>
+        <v>977.2789943105547</v>
       </c>
       <c r="N22" t="n">
-        <v>1301.065183886117</v>
+        <v>1301.065183886118</v>
       </c>
       <c r="O22" t="n">
-        <v>1589.721992631219</v>
+        <v>1589.72199263122</v>
       </c>
       <c r="P22" t="n">
-        <v>1823.792459128477</v>
+        <v>1823.792459128478</v>
       </c>
       <c r="Q22" t="n">
-        <v>1925.001037871264</v>
+        <v>1925.001037871265</v>
       </c>
       <c r="R22" t="n">
-        <v>1882.781835369759</v>
+        <v>1882.78183536976</v>
       </c>
       <c r="S22" t="n">
-        <v>1755.420916463133</v>
+        <v>1755.420916463134</v>
       </c>
       <c r="T22" t="n">
         <v>1605.963663503075</v>
       </c>
       <c r="U22" t="n">
-        <v>1391.730463385654</v>
+        <v>1391.730463385655</v>
       </c>
       <c r="V22" t="n">
-        <v>1211.948749319718</v>
+        <v>1211.948749319719</v>
       </c>
       <c r="W22" t="n">
-        <v>997.4343534227086</v>
+        <v>997.4343534227089</v>
       </c>
       <c r="X22" t="n">
-        <v>844.3475766646422</v>
+        <v>844.3475766646425</v>
       </c>
       <c r="Y22" t="n">
-        <v>698.4577716610631</v>
+        <v>698.4577716610634</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1896.472483334141</v>
+        <v>1896.47248333414</v>
       </c>
       <c r="C23" t="n">
-        <v>1602.41274053368</v>
+        <v>1602.412740533679</v>
       </c>
       <c r="D23" t="n">
-        <v>1319.04981606688</v>
+        <v>1319.049816066879</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.164337608587</v>
+        <v>1008.164337608586</v>
       </c>
       <c r="F23" t="n">
-        <v>672.0812069589305</v>
+        <v>672.0812069589297</v>
       </c>
       <c r="G23" t="n">
-        <v>330.5583983717264</v>
+        <v>330.5583983717265</v>
       </c>
       <c r="H23" t="n">
-        <v>94.01980316589803</v>
+        <v>94.01980316589807</v>
       </c>
       <c r="I23" t="n">
-        <v>74.75903505744689</v>
+        <v>74.75903505744691</v>
       </c>
       <c r="J23" t="n">
         <v>318.48380356053</v>
       </c>
       <c r="K23" t="n">
-        <v>804.5088566657665</v>
+        <v>483.6048982203134</v>
       </c>
       <c r="L23" t="n">
-        <v>1459.742539860081</v>
+        <v>1138.838581414628</v>
       </c>
       <c r="M23" t="n">
-        <v>1836.63863049161</v>
+        <v>1884.518849455879</v>
       </c>
       <c r="N23" t="n">
-        <v>2579.752787308674</v>
+        <v>2627.633006272942</v>
       </c>
       <c r="O23" t="n">
-        <v>2859.274596073674</v>
+        <v>3284.14699448806</v>
       </c>
       <c r="P23" t="n">
-        <v>3381.919713119812</v>
+        <v>3632.880636576076</v>
       </c>
       <c r="Q23" t="n">
-        <v>3697.182670169387</v>
+        <v>3737.951752872345</v>
       </c>
       <c r="R23" t="n">
         <v>3737.951752872345</v>
@@ -6017,22 +6017,22 @@
         <v>3671.729350051489</v>
       </c>
       <c r="T23" t="n">
-        <v>3534.731038741068</v>
+        <v>3534.731038741069</v>
       </c>
       <c r="U23" t="n">
-        <v>3355.995085549084</v>
+        <v>3355.995085549083</v>
       </c>
       <c r="V23" t="n">
-        <v>3099.834972345464</v>
+        <v>3099.834972345463</v>
       </c>
       <c r="W23" t="n">
-        <v>2821.969091215301</v>
+        <v>2821.9690912153</v>
       </c>
       <c r="X23" t="n">
-        <v>2523.406107094172</v>
+        <v>2523.406107094171</v>
       </c>
       <c r="Y23" t="n">
-        <v>2208.169549258311</v>
+        <v>2208.16954925831</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>108.4651394168986</v>
       </c>
       <c r="I24" t="n">
-        <v>74.75903505744689</v>
+        <v>74.75903505744691</v>
       </c>
       <c r="J24" t="n">
-        <v>182.5027945652192</v>
+        <v>226.2264578130628</v>
       </c>
       <c r="K24" t="n">
-        <v>568.0055885455187</v>
+        <v>423.1043385233004</v>
       </c>
       <c r="L24" t="n">
-        <v>780.6341234880565</v>
+        <v>635.7328734658382</v>
       </c>
       <c r="M24" t="n">
-        <v>1048.118462898186</v>
+        <v>1364.265225988468</v>
       </c>
       <c r="N24" t="n">
-        <v>1811.639912363875</v>
+        <v>2127.786675454157</v>
       </c>
       <c r="O24" t="n">
-        <v>2053.773498267067</v>
+        <v>2369.920261357348</v>
       </c>
       <c r="P24" t="n">
-        <v>2544.052122538651</v>
+        <v>2544.920744675394</v>
       </c>
       <c r="Q24" t="n">
-        <v>2611.116114752017</v>
+        <v>2611.984736888761</v>
       </c>
       <c r="R24" t="n">
         <v>2611.984736888761</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>599.7978560433248</v>
+        <v>599.7978560433246</v>
       </c>
       <c r="C25" t="n">
-        <v>505.7644472553689</v>
+        <v>505.7644472553686</v>
       </c>
       <c r="D25" t="n">
-        <v>430.5505819829842</v>
+        <v>430.5505819829838</v>
       </c>
       <c r="E25" t="n">
-        <v>357.540262540542</v>
+        <v>357.5402625405417</v>
       </c>
       <c r="F25" t="n">
-        <v>285.5530891825827</v>
+        <v>285.5530891825823</v>
       </c>
       <c r="G25" t="n">
-        <v>192.1460580086374</v>
+        <v>192.1460580086375</v>
       </c>
       <c r="H25" t="n">
         <v>115.4351419349448</v>
       </c>
       <c r="I25" t="n">
-        <v>74.75903505744689</v>
+        <v>74.75903505744691</v>
       </c>
       <c r="J25" t="n">
         <v>151.2351526109632</v>
@@ -6151,10 +6151,10 @@
         <v>359.5191413155895</v>
       </c>
       <c r="L25" t="n">
-        <v>661.0472282302358</v>
+        <v>661.0472282302356</v>
       </c>
       <c r="M25" t="n">
-        <v>985.3647693831048</v>
+        <v>985.3647693831047</v>
       </c>
       <c r="N25" t="n">
         <v>1309.150958958668</v>
@@ -6163,7 +6163,7 @@
         <v>1597.80776770377</v>
       </c>
       <c r="P25" t="n">
-        <v>1831.878234201027</v>
+        <v>1831.878234201028</v>
       </c>
       <c r="Q25" t="n">
         <v>1933.086812943814</v>
@@ -6187,10 +6187,10 @@
         <v>1005.520128495259</v>
       </c>
       <c r="X25" t="n">
-        <v>852.4333517371927</v>
+        <v>852.4333517371924</v>
       </c>
       <c r="Y25" t="n">
-        <v>706.5435467336135</v>
+        <v>706.5435467336133</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2259.721375518934</v>
+        <v>2259.721375518933</v>
       </c>
       <c r="C26" t="n">
         <v>1915.943208927817</v>
       </c>
       <c r="D26" t="n">
-        <v>1582.861860670362</v>
+        <v>1582.861860670361</v>
       </c>
       <c r="E26" t="n">
         <v>1222.257958421412</v>
       </c>
       <c r="F26" t="n">
-        <v>836.4564039810999</v>
+        <v>836.4564039810995</v>
       </c>
       <c r="G26" t="n">
-        <v>445.2151716032399</v>
+        <v>445.2151716032394</v>
       </c>
       <c r="H26" t="n">
-        <v>158.9581526067552</v>
+        <v>158.958152606755</v>
       </c>
       <c r="I26" t="n">
         <v>89.97896070764773</v>
       </c>
       <c r="J26" t="n">
-        <v>333.7037292107316</v>
+        <v>333.7037292107307</v>
       </c>
       <c r="K26" t="n">
-        <v>819.7287823159681</v>
+        <v>819.7287823159677</v>
       </c>
       <c r="L26" t="n">
-        <v>1474.962465510283</v>
+        <v>1474.962465510282</v>
       </c>
       <c r="M26" t="n">
-        <v>2220.642733551534</v>
+        <v>2220.642733551533</v>
       </c>
       <c r="N26" t="n">
         <v>2963.756890368597</v>
@@ -6245,7 +6245,7 @@
         <v>4142.915995629854</v>
       </c>
       <c r="Q26" t="n">
-        <v>4458.178952679428</v>
+        <v>4458.178952679429</v>
       </c>
       <c r="R26" t="n">
         <v>4498.948035382386</v>
@@ -6257,7 +6257,7 @@
         <v>4196.290473669797</v>
       </c>
       <c r="U26" t="n">
-        <v>3967.836096687157</v>
+        <v>3967.836096687156</v>
       </c>
       <c r="V26" t="n">
         <v>3661.957559692881</v>
@@ -6269,7 +6269,7 @@
         <v>2986.091846860277</v>
       </c>
       <c r="Y26" t="n">
-        <v>2621.136865233761</v>
+        <v>2621.13686523376</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>241.4463834632636</v>
       </c>
       <c r="K27" t="n">
-        <v>365.1285928011103</v>
+        <v>365.1285928011104</v>
       </c>
       <c r="L27" t="n">
-        <v>577.7571277436481</v>
+        <v>577.7571277436482</v>
       </c>
       <c r="M27" t="n">
-        <v>845.2414671537781</v>
+        <v>1306.289480266278</v>
       </c>
       <c r="N27" t="n">
-        <v>1608.762916619467</v>
+        <v>2069.810929731967</v>
       </c>
       <c r="O27" t="n">
-        <v>2176.295050012315</v>
+        <v>2311.944515635158</v>
       </c>
       <c r="P27" t="n">
-        <v>2351.295533330361</v>
+        <v>2486.944998953205</v>
       </c>
       <c r="Q27" t="n">
-        <v>2626.336040402218</v>
+        <v>2627.204662538962</v>
       </c>
       <c r="R27" t="n">
         <v>2627.204662538962</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>332.5972941437482</v>
+        <v>398.8090625844685</v>
       </c>
       <c r="C28" t="n">
-        <v>332.5972941437482</v>
+        <v>398.8090625844685</v>
       </c>
       <c r="D28" t="n">
-        <v>212.7077039407458</v>
+        <v>398.8090625844685</v>
       </c>
       <c r="E28" t="n">
-        <v>89.97896070764773</v>
+        <v>398.8090625844685</v>
       </c>
       <c r="F28" t="n">
-        <v>89.97896070764773</v>
+        <v>398.8090625844685</v>
       </c>
       <c r="G28" t="n">
-        <v>89.97896070764773</v>
+        <v>255.6836076198678</v>
       </c>
       <c r="H28" t="n">
-        <v>89.97896070764773</v>
+        <v>180.3734913758016</v>
       </c>
       <c r="I28" t="n">
         <v>89.97896070764773</v>
       </c>
       <c r="J28" t="n">
-        <v>117.726051103942</v>
+        <v>117.7260511039421</v>
       </c>
       <c r="K28" t="n">
         <v>277.2810126513465</v>
@@ -6406,28 +6406,28 @@
         <v>1558.47452133624</v>
       </c>
       <c r="R28" t="n">
-        <v>1466.536895044079</v>
+        <v>1558.47452133624</v>
       </c>
       <c r="S28" t="n">
-        <v>1289.457552346797</v>
+        <v>1558.47452133624</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.281875596083</v>
+        <v>1359.298844585525</v>
       </c>
       <c r="U28" t="n">
-        <v>826.3302516880058</v>
+        <v>1095.347220677448</v>
       </c>
       <c r="V28" t="n">
-        <v>596.8301138314139</v>
+        <v>865.8470828208565</v>
       </c>
       <c r="W28" t="n">
-        <v>332.5972941437482</v>
+        <v>601.6142631331909</v>
       </c>
       <c r="X28" t="n">
-        <v>332.5972941437482</v>
+        <v>398.8090625844685</v>
       </c>
       <c r="Y28" t="n">
-        <v>332.5972941437482</v>
+        <v>398.8090625844685</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2259.721375518934</v>
+        <v>2259.721375518933</v>
       </c>
       <c r="C29" t="n">
         <v>1915.943208927817</v>
@@ -6452,7 +6452,7 @@
         <v>836.4564039810991</v>
       </c>
       <c r="G29" t="n">
-        <v>445.2151716032391</v>
+        <v>445.215171603239</v>
       </c>
       <c r="H29" t="n">
         <v>158.9581526067549</v>
@@ -6506,7 +6506,7 @@
         <v>2986.091846860277</v>
       </c>
       <c r="Y29" t="n">
-        <v>2621.136865233761</v>
+        <v>2621.13686523376</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>89.97896070764773</v>
       </c>
       <c r="J30" t="n">
-        <v>116.6162584762589</v>
+        <v>241.4463834632636</v>
       </c>
       <c r="K30" t="n">
-        <v>240.2984678141056</v>
+        <v>438.3242641735011</v>
       </c>
       <c r="L30" t="n">
-        <v>672.5027887959226</v>
+        <v>650.9527991160389</v>
       </c>
       <c r="M30" t="n">
-        <v>939.9871282060526</v>
+        <v>1379.485151638669</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.959627071623</v>
+        <v>2143.006601104358</v>
       </c>
       <c r="O30" t="n">
-        <v>1861.016909058777</v>
+        <v>2385.140187007549</v>
       </c>
       <c r="P30" t="n">
-        <v>2351.295533330361</v>
+        <v>2560.140670325595</v>
       </c>
       <c r="Q30" t="n">
-        <v>2626.336040402218</v>
+        <v>2627.204662538962</v>
       </c>
       <c r="R30" t="n">
         <v>2627.204662538962</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>355.436390434875</v>
+        <v>376.8562482508605</v>
       </c>
       <c r="C31" t="n">
-        <v>211.6845578562631</v>
+        <v>233.1044156722485</v>
       </c>
       <c r="D31" t="n">
-        <v>211.6845578562631</v>
+        <v>233.1044156722485</v>
       </c>
       <c r="E31" t="n">
-        <v>211.6845578562631</v>
+        <v>233.1044156722485</v>
       </c>
       <c r="F31" t="n">
-        <v>89.97896070764773</v>
+        <v>233.1044156722485</v>
       </c>
       <c r="G31" t="n">
         <v>89.97896070764773</v>
@@ -6619,52 +6619,52 @@
         <v>89.97896070764773</v>
       </c>
       <c r="J31" t="n">
-        <v>117.7260511039421</v>
+        <v>117.726051103942</v>
       </c>
       <c r="K31" t="n">
-        <v>277.2810126513465</v>
+        <v>277.2810126513464</v>
       </c>
       <c r="L31" t="n">
-        <v>530.0800724087707</v>
+        <v>530.0800724087705</v>
       </c>
       <c r="M31" t="n">
-        <v>805.6685864044177</v>
+        <v>805.6685864044175</v>
       </c>
       <c r="N31" t="n">
-        <v>1080.725748822759</v>
+        <v>1080.725748822758</v>
       </c>
       <c r="O31" t="n">
-        <v>1320.653530410639</v>
+        <v>1320.653530410638</v>
       </c>
       <c r="P31" t="n">
         <v>1505.994969750674</v>
       </c>
       <c r="Q31" t="n">
-        <v>1558.47452133624</v>
+        <v>1558.474521336239</v>
       </c>
       <c r="R31" t="n">
-        <v>1466.536895044079</v>
+        <v>1558.474521336239</v>
       </c>
       <c r="S31" t="n">
-        <v>1289.457552346797</v>
+        <v>1558.474521336239</v>
       </c>
       <c r="T31" t="n">
-        <v>1090.281875596083</v>
+        <v>1359.298844585524</v>
       </c>
       <c r="U31" t="n">
-        <v>826.3302516880058</v>
+        <v>1359.298844585524</v>
       </c>
       <c r="V31" t="n">
-        <v>826.3302516880058</v>
+        <v>1129.798706728933</v>
       </c>
       <c r="W31" t="n">
-        <v>753.8498197778325</v>
+        <v>931.7337920747628</v>
       </c>
       <c r="X31" t="n">
-        <v>551.0446192291101</v>
+        <v>728.9285915260405</v>
       </c>
       <c r="Y31" t="n">
-        <v>355.436390434875</v>
+        <v>533.3203627318053</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>830.5155004602607</v>
       </c>
       <c r="G32" t="n">
-        <v>441.0712080362346</v>
+        <v>441.0712080362345</v>
       </c>
       <c r="H32" t="n">
         <v>156.6111289935841</v>
@@ -6698,7 +6698,7 @@
         <v>89.42887704831082</v>
       </c>
       <c r="J32" t="n">
-        <v>306.1995462438858</v>
+        <v>333.1536455513939</v>
       </c>
       <c r="K32" t="n">
         <v>792.2245993491224</v>
@@ -6725,10 +6725,10 @@
         <v>4471.443852415541</v>
       </c>
       <c r="S32" t="n">
-        <v>4357.299965757863</v>
+        <v>4357.299965757862</v>
       </c>
       <c r="T32" t="n">
-        <v>4172.380170610621</v>
+        <v>4172.38017061062</v>
       </c>
       <c r="U32" t="n">
         <v>3945.722733581813</v>
@@ -6780,25 +6780,25 @@
         <v>116.066174816922</v>
       </c>
       <c r="K33" t="n">
-        <v>501.5689687972215</v>
+        <v>239.7483841547687</v>
       </c>
       <c r="L33" t="n">
-        <v>988.0994682268678</v>
+        <v>819.5088609477311</v>
       </c>
       <c r="M33" t="n">
-        <v>1255.583807636998</v>
+        <v>1378.066445842589</v>
       </c>
       <c r="N33" t="n">
-        <v>1544.556306502569</v>
+        <v>2141.587895308277</v>
       </c>
       <c r="O33" t="n">
-        <v>2176.613588489722</v>
+        <v>2383.721481211469</v>
       </c>
       <c r="P33" t="n">
-        <v>2351.614071807768</v>
+        <v>2558.721964529515</v>
       </c>
       <c r="Q33" t="n">
-        <v>2626.654578879626</v>
+        <v>2625.785956742882</v>
       </c>
       <c r="R33" t="n">
         <v>2626.654578879626</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>333.4960294367819</v>
+        <v>330.2693375223565</v>
       </c>
       <c r="C34" t="n">
-        <v>333.4960294367819</v>
+        <v>330.2693375223565</v>
       </c>
       <c r="D34" t="n">
-        <v>210.3606803275751</v>
+        <v>330.2693375223565</v>
       </c>
       <c r="E34" t="n">
-        <v>89.42887704831082</v>
+        <v>209.3375342430923</v>
       </c>
       <c r="F34" t="n">
         <v>89.42887704831082</v>
@@ -6880,28 +6880,28 @@
         <v>1572.013884466923</v>
       </c>
       <c r="R34" t="n">
-        <v>1481.873198128596</v>
+        <v>1572.013884466923</v>
       </c>
       <c r="S34" t="n">
-        <v>1306.590795385149</v>
+        <v>1480.950096504958</v>
       </c>
       <c r="T34" t="n">
-        <v>1109.212058588268</v>
+        <v>1283.571359708078</v>
       </c>
       <c r="U34" t="n">
-        <v>847.0573746340251</v>
+        <v>1021.416675753835</v>
       </c>
       <c r="V34" t="n">
-        <v>750.5990836977245</v>
+        <v>793.7134778510767</v>
       </c>
       <c r="W34" t="n">
-        <v>488.1632039638927</v>
+        <v>531.277598117245</v>
       </c>
       <c r="X34" t="n">
-        <v>488.1632039638927</v>
+        <v>330.2693375223565</v>
       </c>
       <c r="Y34" t="n">
-        <v>488.1632039638927</v>
+        <v>330.2693375223565</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>987.5513278762012</v>
+        <v>1323.634458525858</v>
       </c>
       <c r="C35" t="n">
-        <v>987.5513278762012</v>
+        <v>1323.634458525858</v>
       </c>
       <c r="D35" t="n">
-        <v>704.1884034094016</v>
+        <v>1040.271534059058</v>
       </c>
       <c r="E35" t="n">
-        <v>393.3029249511084</v>
+        <v>729.3860556007648</v>
       </c>
       <c r="F35" t="n">
         <v>393.3029249511084</v>
       </c>
       <c r="G35" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="H35" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="I35" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J35" t="n">
-        <v>128.0992358466345</v>
+        <v>295.5048848669875</v>
       </c>
       <c r="K35" t="n">
-        <v>293.220330506418</v>
+        <v>460.625979526771</v>
       </c>
       <c r="L35" t="n">
-        <v>933.9992705097349</v>
+        <v>702.3750603161394</v>
       </c>
       <c r="M35" t="n">
-        <v>1234.661140393082</v>
+        <v>1003.036930199486</v>
       </c>
       <c r="N35" t="n">
-        <v>1681.767776087811</v>
+        <v>1313.177631848686</v>
       </c>
       <c r="O35" t="n">
-        <v>1961.289584852812</v>
+        <v>1710.328661396548</v>
       </c>
       <c r="P35" t="n">
-        <v>2483.934701898949</v>
+        <v>2232.973778442685</v>
       </c>
       <c r="Q35" t="n">
-        <v>2589.005818195219</v>
+        <v>2548.236735492261</v>
       </c>
       <c r="R35" t="n">
         <v>2589.005818195219</v>
       </c>
       <c r="S35" t="n">
-        <v>2522.783415374363</v>
+        <v>2522.783415374362</v>
       </c>
       <c r="T35" t="n">
-        <v>2522.783415374363</v>
+        <v>2385.785104063943</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.047462182379</v>
+        <v>2207.049150871958</v>
       </c>
       <c r="V35" t="n">
-        <v>2087.887348978759</v>
+        <v>1950.889037668338</v>
       </c>
       <c r="W35" t="n">
-        <v>1913.047935757362</v>
+        <v>1937.434000482847</v>
       </c>
       <c r="X35" t="n">
-        <v>1614.484951636233</v>
+        <v>1638.871016361718</v>
       </c>
       <c r="Y35" t="n">
-        <v>1299.248393800372</v>
+        <v>1323.634458525858</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>949.2268737530093</v>
+        <v>949.2268737530094</v>
       </c>
       <c r="C36" t="n">
-        <v>774.7738444718823</v>
+        <v>774.7738444718824</v>
       </c>
       <c r="D36" t="n">
         <v>625.839434810631</v>
@@ -7002,46 +7002,46 @@
         <v>466.6019798051755</v>
       </c>
       <c r="F36" t="n">
-        <v>320.0674218320604</v>
+        <v>320.0674218320605</v>
       </c>
       <c r="G36" t="n">
-        <v>182.9803319115693</v>
+        <v>182.9803319115695</v>
       </c>
       <c r="H36" t="n">
-        <v>85.48622072335611</v>
+        <v>85.4862207233561</v>
       </c>
       <c r="I36" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J36" t="n">
-        <v>203.2475391195203</v>
+        <v>78.41741413251552</v>
       </c>
       <c r="K36" t="n">
-        <v>326.9297484573671</v>
+        <v>202.0996234703623</v>
       </c>
       <c r="L36" t="n">
-        <v>539.5582833999049</v>
+        <v>781.8601002633247</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.105120673336</v>
+        <v>1422.639040266641</v>
       </c>
       <c r="N36" t="n">
-        <v>1714.884060676653</v>
+        <v>1711.611539132212</v>
       </c>
       <c r="O36" t="n">
-        <v>2346.941342663807</v>
+        <v>2030.794579573524</v>
       </c>
       <c r="P36" t="n">
-        <v>2521.941825981853</v>
+        <v>2521.073203845108</v>
       </c>
       <c r="Q36" t="n">
-        <v>2589.005818195219</v>
+        <v>2588.137196058475</v>
       </c>
       <c r="R36" t="n">
         <v>2589.005818195219</v>
       </c>
       <c r="S36" t="n">
-        <v>2446.120139564062</v>
+        <v>2446.120139564061</v>
       </c>
       <c r="T36" t="n">
         <v>2250.558952473903</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8189373497821</v>
+        <v>576.8189373497817</v>
       </c>
       <c r="C37" t="n">
-        <v>482.7855285618262</v>
+        <v>482.7855285618258</v>
       </c>
       <c r="D37" t="n">
-        <v>407.5716632894414</v>
+        <v>407.5716632894411</v>
       </c>
       <c r="E37" t="n">
-        <v>334.5613438469993</v>
+        <v>334.561343846999</v>
       </c>
       <c r="F37" t="n">
-        <v>262.5741704890398</v>
+        <v>262.5741704890396</v>
       </c>
       <c r="G37" t="n">
-        <v>169.167139315095</v>
+        <v>169.1671393150949</v>
       </c>
       <c r="H37" t="n">
-        <v>92.45622324140231</v>
+        <v>92.45622324140223</v>
       </c>
       <c r="I37" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J37" t="n">
-        <v>128.2562339174206</v>
+        <v>128.2562339174207</v>
       </c>
       <c r="K37" t="n">
-        <v>336.540222622047</v>
+        <v>336.5402226220471</v>
       </c>
       <c r="L37" t="n">
-        <v>638.0683095366931</v>
+        <v>638.0683095366921</v>
       </c>
       <c r="M37" t="n">
-        <v>962.3858506895619</v>
+        <v>962.3858506895613</v>
       </c>
       <c r="N37" t="n">
-        <v>1286.172040265125</v>
+        <v>1286.172040265124</v>
       </c>
       <c r="O37" t="n">
-        <v>1574.828849010227</v>
+        <v>1574.828849010226</v>
       </c>
       <c r="P37" t="n">
-        <v>1808.899315507485</v>
+        <v>1808.899315507484</v>
       </c>
       <c r="Q37" t="n">
         <v>1910.107894250271</v>
       </c>
       <c r="R37" t="n">
-        <v>1867.888691748767</v>
+        <v>1867.888691748766</v>
       </c>
       <c r="S37" t="n">
-        <v>1740.527772842141</v>
+        <v>1740.52777284214</v>
       </c>
       <c r="T37" t="n">
         <v>1591.070519882082</v>
       </c>
       <c r="U37" t="n">
-        <v>1376.837319764662</v>
+        <v>1376.837319764661</v>
       </c>
       <c r="V37" t="n">
-        <v>1197.055605698726</v>
+        <v>1197.055605698725</v>
       </c>
       <c r="W37" t="n">
-        <v>982.5412098017164</v>
+        <v>982.5412098017158</v>
       </c>
       <c r="X37" t="n">
-        <v>829.4544330436499</v>
+        <v>829.4544330436495</v>
       </c>
       <c r="Y37" t="n">
-        <v>683.5646280400708</v>
+        <v>683.5646280400704</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1318.923219696495</v>
+        <v>965.2859142808211</v>
       </c>
       <c r="C38" t="n">
-        <v>1024.863476896035</v>
+        <v>671.2261714803603</v>
       </c>
       <c r="D38" t="n">
-        <v>741.5005524292351</v>
+        <v>387.8632470135609</v>
       </c>
       <c r="E38" t="n">
-        <v>430.6150739709418</v>
+        <v>387.8632470135609</v>
       </c>
       <c r="F38" t="n">
-        <v>94.53194332128521</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="G38" t="n">
-        <v>71.04088447235554</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="H38" t="n">
-        <v>71.04088447235554</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="I38" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J38" t="n">
-        <v>128.0992358466345</v>
+        <v>271.1513590188354</v>
       </c>
       <c r="K38" t="n">
-        <v>614.1242889518711</v>
+        <v>436.2724536786189</v>
       </c>
       <c r="L38" t="n">
-        <v>855.8733697412395</v>
+        <v>678.0215344679873</v>
       </c>
       <c r="M38" t="n">
-        <v>1156.535239624586</v>
+        <v>1318.800474471304</v>
       </c>
       <c r="N38" t="n">
-        <v>1466.675941273786</v>
+        <v>1959.579414474621</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.454881277103</v>
+        <v>2239.101223239621</v>
       </c>
       <c r="P38" t="n">
-        <v>2311.519277233472</v>
+        <v>2443.165619195991</v>
       </c>
       <c r="Q38" t="n">
-        <v>2589.005818195219</v>
+        <v>2548.236735492261</v>
       </c>
       <c r="R38" t="n">
         <v>2589.005818195219</v>
       </c>
       <c r="S38" t="n">
-        <v>2522.783415374363</v>
+        <v>2522.783415374362</v>
       </c>
       <c r="T38" t="n">
-        <v>2385.785104063943</v>
+        <v>2522.783415374362</v>
       </c>
       <c r="U38" t="n">
-        <v>2207.049150871958</v>
+        <v>2344.047462182378</v>
       </c>
       <c r="V38" t="n">
-        <v>2207.049150871958</v>
+        <v>2168.648403292144</v>
       </c>
       <c r="W38" t="n">
-        <v>1929.183269741795</v>
+        <v>1890.782522161981</v>
       </c>
       <c r="X38" t="n">
-        <v>1630.620285620666</v>
+        <v>1592.219538040853</v>
       </c>
       <c r="Y38" t="n">
-        <v>1630.620285620666</v>
+        <v>1276.982980204992</v>
       </c>
     </row>
     <row r="39">
@@ -7239,46 +7239,46 @@
         <v>466.6019798051755</v>
       </c>
       <c r="F39" t="n">
-        <v>320.0674218320606</v>
+        <v>320.0674218320605</v>
       </c>
       <c r="G39" t="n">
-        <v>182.9803319115693</v>
+        <v>182.9803319115695</v>
       </c>
       <c r="H39" t="n">
-        <v>85.48622072335611</v>
+        <v>85.48622072335593</v>
       </c>
       <c r="I39" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J39" t="n">
-        <v>78.41741413251555</v>
+        <v>193.1639516276895</v>
       </c>
       <c r="K39" t="n">
-        <v>463.9202081128151</v>
+        <v>578.666745607989</v>
       </c>
       <c r="L39" t="n">
-        <v>676.5487430553529</v>
+        <v>1158.427222400951</v>
       </c>
       <c r="M39" t="n">
-        <v>1317.32768305867</v>
+        <v>1425.911561811081</v>
       </c>
       <c r="N39" t="n">
-        <v>1606.30018192424</v>
+        <v>1714.884060676652</v>
       </c>
       <c r="O39" t="n">
-        <v>2030.794579573525</v>
+        <v>2346.941342663806</v>
       </c>
       <c r="P39" t="n">
-        <v>2521.073203845109</v>
+        <v>2521.941825981852</v>
       </c>
       <c r="Q39" t="n">
-        <v>2588.137196058476</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="R39" t="n">
         <v>2589.005818195219</v>
       </c>
       <c r="S39" t="n">
-        <v>2446.120139564062</v>
+        <v>2446.120139564061</v>
       </c>
       <c r="T39" t="n">
         <v>2250.558952473903</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8189373497821</v>
+        <v>576.8189373497817</v>
       </c>
       <c r="C40" t="n">
-        <v>482.7855285618262</v>
+        <v>482.7855285618257</v>
       </c>
       <c r="D40" t="n">
-        <v>407.5716632894414</v>
+        <v>407.571663289441</v>
       </c>
       <c r="E40" t="n">
-        <v>334.5613438469993</v>
+        <v>334.5613438469989</v>
       </c>
       <c r="F40" t="n">
-        <v>262.5741704890398</v>
+        <v>262.5741704890395</v>
       </c>
       <c r="G40" t="n">
-        <v>169.167139315095</v>
+        <v>169.1671393150948</v>
       </c>
       <c r="H40" t="n">
-        <v>92.45622324140231</v>
+        <v>92.45622324140223</v>
       </c>
       <c r="I40" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J40" t="n">
-        <v>128.2562339174206</v>
+        <v>128.2562339174207</v>
       </c>
       <c r="K40" t="n">
-        <v>336.540222622047</v>
+        <v>336.5402226220471</v>
       </c>
       <c r="L40" t="n">
-        <v>638.0683095366931</v>
+        <v>638.0683095366933</v>
       </c>
       <c r="M40" t="n">
-        <v>962.3858506895621</v>
+        <v>962.3858506895624</v>
       </c>
       <c r="N40" t="n">
         <v>1286.172040265125</v>
@@ -7357,7 +7357,7 @@
         <v>1867.888691748767</v>
       </c>
       <c r="S40" t="n">
-        <v>1740.527772842141</v>
+        <v>1740.527772842142</v>
       </c>
       <c r="T40" t="n">
         <v>1591.070519882083</v>
@@ -7369,13 +7369,13 @@
         <v>1197.055605698726</v>
       </c>
       <c r="W40" t="n">
-        <v>982.5412098017164</v>
+        <v>982.5412098017163</v>
       </c>
       <c r="X40" t="n">
         <v>829.4544330436499</v>
       </c>
       <c r="Y40" t="n">
-        <v>683.5646280400708</v>
+        <v>683.5646280400704</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>727.0345501164979</v>
+        <v>1414.140292059514</v>
       </c>
       <c r="C41" t="n">
-        <v>727.0345501164979</v>
+        <v>1094.896198909759</v>
       </c>
       <c r="D41" t="n">
-        <v>418.4872753004034</v>
+        <v>786.3489240936642</v>
       </c>
       <c r="E41" t="n">
-        <v>418.4872753004034</v>
+        <v>786.3489240936642</v>
       </c>
       <c r="F41" t="n">
-        <v>418.4872753004034</v>
+        <v>724.6553393132729</v>
       </c>
       <c r="G41" t="n">
-        <v>51.78011636390439</v>
+        <v>357.9481803767738</v>
       </c>
       <c r="H41" t="n">
-        <v>51.78011636390439</v>
+        <v>96.22523482165045</v>
       </c>
       <c r="I41" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J41" t="n">
-        <v>243.5288208619624</v>
+        <v>128.0992358466344</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6499155217459</v>
+        <v>614.124288951871</v>
       </c>
       <c r="L41" t="n">
-        <v>1049.428855525063</v>
+        <v>855.8733697412393</v>
       </c>
       <c r="M41" t="n">
-        <v>1690.20779552838</v>
+        <v>1156.535239624586</v>
       </c>
       <c r="N41" t="n">
-        <v>2000.348497177579</v>
+        <v>1466.675941273786</v>
       </c>
       <c r="O41" t="n">
-        <v>2279.87030594258</v>
+        <v>1961.289584852811</v>
       </c>
       <c r="P41" t="n">
-        <v>2483.934701898949</v>
+        <v>2483.934701898948</v>
       </c>
       <c r="Q41" t="n">
         <v>2589.005818195219</v>
@@ -7436,25 +7436,25 @@
         <v>2589.005818195219</v>
       </c>
       <c r="S41" t="n">
-        <v>2589.005818195219</v>
+        <v>2497.599065025067</v>
       </c>
       <c r="T41" t="n">
-        <v>2426.823156535504</v>
+        <v>2335.416403365352</v>
       </c>
       <c r="U41" t="n">
-        <v>2222.902852994225</v>
+        <v>2335.416403365352</v>
       </c>
       <c r="V41" t="n">
-        <v>1941.55838944131</v>
+        <v>2054.071939812438</v>
       </c>
       <c r="W41" t="n">
-        <v>1638.508157961852</v>
+        <v>1751.02170833298</v>
       </c>
       <c r="X41" t="n">
-        <v>1404.33687457512</v>
+        <v>1751.02170833298</v>
       </c>
       <c r="Y41" t="n">
-        <v>1063.915966389964</v>
+        <v>1751.02170833298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>949.2268737530092</v>
+        <v>949.2268737530082</v>
       </c>
       <c r="C42" t="n">
-        <v>774.7738444718822</v>
+        <v>774.7738444718813</v>
       </c>
       <c r="D42" t="n">
-        <v>625.8394348106309</v>
+        <v>625.83943481063</v>
       </c>
       <c r="E42" t="n">
-        <v>466.6019798051754</v>
+        <v>466.6019798051745</v>
       </c>
       <c r="F42" t="n">
-        <v>320.0674218320604</v>
+        <v>320.0674218320595</v>
       </c>
       <c r="G42" t="n">
-        <v>182.9803319115693</v>
+        <v>182.9803319115684</v>
       </c>
       <c r="H42" t="n">
-        <v>85.48622072335611</v>
+        <v>85.4862207233561</v>
       </c>
       <c r="I42" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J42" t="n">
-        <v>78.41741413251555</v>
+        <v>203.2475391195203</v>
       </c>
       <c r="K42" t="n">
-        <v>202.0996234703623</v>
+        <v>588.7503330998198</v>
       </c>
       <c r="L42" t="n">
-        <v>414.7281584129001</v>
+        <v>1025.096262672885</v>
       </c>
       <c r="M42" t="n">
-        <v>939.9055388085262</v>
+        <v>1292.580602083015</v>
       </c>
       <c r="N42" t="n">
-        <v>1580.684478811843</v>
+        <v>1581.553100948586</v>
       </c>
       <c r="O42" t="n">
-        <v>1822.818064715035</v>
+        <v>1823.686686851777</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.096688986618</v>
+        <v>2313.965311123361</v>
       </c>
       <c r="Q42" t="n">
-        <v>2588.137196058476</v>
+        <v>2589.005818195219</v>
       </c>
       <c r="R42" t="n">
         <v>2589.005818195219</v>
       </c>
       <c r="S42" t="n">
-        <v>2446.120139564062</v>
+        <v>2446.120139564061</v>
       </c>
       <c r="T42" t="n">
-        <v>2250.558952473903</v>
+        <v>2250.558952473902</v>
       </c>
       <c r="U42" t="n">
-        <v>2022.443474703508</v>
+        <v>2022.443474703507</v>
       </c>
       <c r="V42" t="n">
-        <v>1787.291366471766</v>
+        <v>1787.291366471765</v>
       </c>
       <c r="W42" t="n">
-        <v>1533.054009743564</v>
+        <v>1533.054009743563</v>
       </c>
       <c r="X42" t="n">
-        <v>1325.202509538031</v>
+        <v>1325.20250953803</v>
       </c>
       <c r="Y42" t="n">
-        <v>1117.442210773077</v>
+        <v>1117.442210773076</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>330.9654570947363</v>
+        <v>218.0387892123769</v>
       </c>
       <c r="C43" t="n">
-        <v>268.5661676788813</v>
+        <v>218.0387892123769</v>
       </c>
       <c r="D43" t="n">
-        <v>268.5661676788813</v>
+        <v>117.6405735906972</v>
       </c>
       <c r="E43" t="n">
-        <v>170.3714978871442</v>
+        <v>117.6405735906972</v>
       </c>
       <c r="F43" t="n">
-        <v>170.3714978871442</v>
+        <v>117.6405735906972</v>
       </c>
       <c r="G43" t="n">
-        <v>51.78011636390439</v>
+        <v>117.6405735906972</v>
       </c>
       <c r="H43" t="n">
-        <v>51.78011636390439</v>
+        <v>117.6405735906972</v>
       </c>
       <c r="I43" t="n">
-        <v>51.78011636390439</v>
+        <v>51.78011636390437</v>
       </c>
       <c r="J43" t="n">
         <v>103.5730521400766</v>
@@ -7573,10 +7573,10 @@
         <v>287.173859067359</v>
       </c>
       <c r="L43" t="n">
-        <v>564.018764204661</v>
+        <v>564.0187642046612</v>
       </c>
       <c r="M43" t="n">
-        <v>863.653123580186</v>
+        <v>863.6531235801863</v>
       </c>
       <c r="N43" t="n">
         <v>1162.756131378405</v>
@@ -7594,25 +7594,25 @@
         <v>1645.23888718072</v>
       </c>
       <c r="S43" t="n">
-        <v>1492.693617924799</v>
+        <v>1558.038077149801</v>
       </c>
       <c r="T43" t="n">
-        <v>1318.052014615445</v>
+        <v>1383.396473840447</v>
       </c>
       <c r="U43" t="n">
-        <v>1078.63446414873</v>
+        <v>1143.978923373732</v>
       </c>
       <c r="V43" t="n">
-        <v>873.6683997334987</v>
+        <v>939.0128589585006</v>
       </c>
       <c r="W43" t="n">
-        <v>633.9696534871941</v>
+        <v>699.314112712196</v>
       </c>
       <c r="X43" t="n">
-        <v>633.9696534871941</v>
+        <v>521.0429856048347</v>
       </c>
       <c r="Y43" t="n">
-        <v>462.89549813432</v>
+        <v>349.9688302519606</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>624.2059772166311</v>
+        <v>712.1414064955052</v>
       </c>
       <c r="C44" t="n">
-        <v>304.9618840668754</v>
+        <v>712.1414064955052</v>
       </c>
       <c r="D44" t="n">
-        <v>298.6099182980353</v>
+        <v>403.5941316794107</v>
       </c>
       <c r="E44" t="n">
-        <v>298.6099182980353</v>
+        <v>403.5941316794107</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6099182980353</v>
+        <v>403.5941316794107</v>
       </c>
       <c r="G44" t="n">
-        <v>298.6099182980353</v>
+        <v>36.88697274291179</v>
       </c>
       <c r="H44" t="n">
-        <v>36.88697274291182</v>
+        <v>36.88697274291179</v>
       </c>
       <c r="I44" t="n">
-        <v>36.88697274291182</v>
+        <v>36.88697274291179</v>
       </c>
       <c r="J44" t="n">
         <v>113.2060922256419</v>
       </c>
       <c r="K44" t="n">
-        <v>362.3705811030781</v>
+        <v>278.3271868854254</v>
       </c>
       <c r="L44" t="n">
-        <v>604.1196618924464</v>
+        <v>520.0762676747937</v>
       </c>
       <c r="M44" t="n">
-        <v>904.7815317757932</v>
+        <v>820.7381375581406</v>
       </c>
       <c r="N44" t="n">
-        <v>1214.922233424993</v>
+        <v>1130.87883920734</v>
       </c>
       <c r="O44" t="n">
-        <v>1494.444042189993</v>
+        <v>1535.21312489295</v>
       </c>
       <c r="P44" t="n">
-        <v>1698.508438146363</v>
+        <v>1739.27752084932</v>
       </c>
       <c r="Q44" t="n">
-        <v>1803.579554442633</v>
+        <v>1844.34863714559</v>
       </c>
       <c r="R44" t="n">
-        <v>1844.348637145591</v>
+        <v>1844.34863714559</v>
       </c>
       <c r="S44" t="n">
-        <v>1752.94188397544</v>
+        <v>1844.34863714559</v>
       </c>
       <c r="T44" t="n">
-        <v>1752.94188397544</v>
+        <v>1844.34863714559</v>
       </c>
       <c r="U44" t="n">
-        <v>1549.02158043416</v>
+        <v>1679.359880630543</v>
       </c>
       <c r="V44" t="n">
-        <v>1267.677116881245</v>
+        <v>1679.359880630543</v>
       </c>
       <c r="W44" t="n">
-        <v>964.6268854017869</v>
+        <v>1376.309649151085</v>
       </c>
       <c r="X44" t="n">
-        <v>964.6268854017869</v>
+        <v>1052.562314680661</v>
       </c>
       <c r="Y44" t="n">
-        <v>624.2059772166311</v>
+        <v>712.1414064955052</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.3170830286291</v>
+        <v>602.3170830286284</v>
       </c>
       <c r="C45" t="n">
-        <v>477.5824775381581</v>
+        <v>477.5824775381575</v>
       </c>
       <c r="D45" t="n">
-        <v>378.3664916675627</v>
+        <v>378.3664916675623</v>
       </c>
       <c r="E45" t="n">
-        <v>268.8474604527632</v>
+        <v>268.8474604527628</v>
       </c>
       <c r="F45" t="n">
-        <v>172.0313262703041</v>
+        <v>172.0313262703039</v>
       </c>
       <c r="G45" t="n">
-        <v>84.66266014046906</v>
+        <v>84.66266014046892</v>
       </c>
       <c r="H45" t="n">
-        <v>36.88697274291182</v>
+        <v>36.88697274291179</v>
       </c>
       <c r="I45" t="n">
-        <v>36.88697274291182</v>
+        <v>36.88697274291179</v>
       </c>
       <c r="J45" t="n">
-        <v>63.52427051152297</v>
+        <v>63.52427051152294</v>
       </c>
       <c r="K45" t="n">
-        <v>383.0886876342577</v>
+        <v>187.2064798493697</v>
       </c>
       <c r="L45" t="n">
-        <v>595.7172225767955</v>
+        <v>399.8350147919076</v>
       </c>
       <c r="M45" t="n">
-        <v>863.2015619869255</v>
+        <v>667.3193542020376</v>
       </c>
       <c r="N45" t="n">
-        <v>1152.174060852496</v>
+        <v>956.2918530676084</v>
       </c>
       <c r="O45" t="n">
-        <v>1394.307646755688</v>
+        <v>1198.4254389708</v>
       </c>
       <c r="P45" t="n">
-        <v>1569.308130073734</v>
+        <v>1568.439507936988</v>
       </c>
       <c r="Q45" t="n">
-        <v>1844.348637145591</v>
+        <v>1843.480015008846</v>
       </c>
       <c r="R45" t="n">
-        <v>1844.348637145591</v>
+        <v>1844.34863714559</v>
       </c>
       <c r="S45" t="n">
-        <v>1751.18138230509</v>
+        <v>1751.181382305088</v>
       </c>
       <c r="T45" t="n">
-        <v>1605.338619005586</v>
+        <v>1605.338619005585</v>
       </c>
       <c r="U45" t="n">
-        <v>1426.941565025849</v>
+        <v>1426.941565025847</v>
       </c>
       <c r="V45" t="n">
-        <v>1241.507880584762</v>
+        <v>1241.507880584761</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.988947647216</v>
+        <v>1036.988947647215</v>
       </c>
       <c r="X45" t="n">
-        <v>878.8558712323393</v>
+        <v>878.8558712323384</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.8139962580411</v>
+        <v>720.8139962580403</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.1047318801628</v>
+        <v>535.9227641291865</v>
       </c>
       <c r="C46" t="n">
-        <v>36.88697274291182</v>
+        <v>416.7050049919356</v>
       </c>
       <c r="D46" t="n">
-        <v>36.88697274291182</v>
+        <v>416.7050049919356</v>
       </c>
       <c r="E46" t="n">
-        <v>36.88697274291182</v>
+        <v>318.5103352001985</v>
       </c>
       <c r="F46" t="n">
-        <v>36.88697274291182</v>
+        <v>221.3388114929442</v>
       </c>
       <c r="G46" t="n">
-        <v>36.88697274291182</v>
+        <v>102.7474299697046</v>
       </c>
       <c r="H46" t="n">
-        <v>36.88697274291182</v>
+        <v>102.7474299697046</v>
       </c>
       <c r="I46" t="n">
-        <v>36.88697274291182</v>
+        <v>36.88697274291179</v>
       </c>
       <c r="J46" t="n">
-        <v>88.67990851908404</v>
+        <v>88.67990851908412</v>
       </c>
       <c r="K46" t="n">
-        <v>272.2807154463664</v>
+        <v>272.2807154463666</v>
       </c>
       <c r="L46" t="n">
-        <v>549.1256205836685</v>
+        <v>549.1256205836687</v>
       </c>
       <c r="M46" t="n">
-        <v>848.7599799591935</v>
+        <v>848.7599799591937</v>
       </c>
       <c r="N46" t="n">
-        <v>1147.862987757412</v>
+        <v>1147.862987757413</v>
       </c>
       <c r="O46" t="n">
-        <v>1411.83661472517</v>
+        <v>1411.836614725171</v>
       </c>
       <c r="P46" t="n">
         <v>1621.223899445084</v>
@@ -7828,28 +7828,28 @@
         <v>1697.749296410527</v>
       </c>
       <c r="R46" t="n">
-        <v>1630.345743559727</v>
+        <v>1630.345743559728</v>
       </c>
       <c r="S46" t="n">
-        <v>1477.800474303806</v>
+        <v>1477.800474303807</v>
       </c>
       <c r="T46" t="n">
-        <v>1303.158870994453</v>
+        <v>1303.158870994454</v>
       </c>
       <c r="U46" t="n">
-        <v>1063.741320527737</v>
+        <v>1063.741320527738</v>
       </c>
       <c r="V46" t="n">
-        <v>858.7752561125062</v>
+        <v>858.7752561125072</v>
       </c>
       <c r="W46" t="n">
-        <v>619.0765098662016</v>
+        <v>858.7752561125072</v>
       </c>
       <c r="X46" t="n">
-        <v>459.1089282726206</v>
+        <v>838.9269605216441</v>
       </c>
       <c r="Y46" t="n">
-        <v>288.0347729197465</v>
+        <v>667.8528051687701</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8465,7 +8465,7 @@
         <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
         <v>238.109041496981</v>
@@ -8535,13 +8535,13 @@
         <v>144.4396646861023</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8617,10 +8617,10 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>134.5615902069446</v>
+        <v>134.2837701769765</v>
       </c>
       <c r="O10" t="n">
         <v>145.3325841935542</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>157.6515819496303</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.0835879909771</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>24.53552825383298</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>58.80541501824857</v>
       </c>
       <c r="L12" t="n">
-        <v>37.10020344709645</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>377.065253124431</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>355.3600415532786</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8924,22 +8924,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.0027239291359</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>403.060463852473</v>
+        <v>403.0604638524729</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>343.5525960807776</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>75.41464880037347</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.53552825383301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>40.93045894334595</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>377.065253124431</v>
+        <v>377.0652531244309</v>
       </c>
       <c r="N15" t="n">
         <v>355.3600415532786</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>17.90848497007555</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>97.06350682086861</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>343.5525960807777</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>333.9780185395122</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>144.4970941133345</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>377.065253124431</v>
       </c>
       <c r="N18" t="n">
         <v>355.3600415532786</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>153.5304750551985</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>21.21453189381745</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>254.6414276204149</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.2527652774535</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>24.53552825383301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>307.6506898710558</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>271.8688014019535</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.64427371359996</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>77.00426338200253</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>146.1305516481268</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>24.53552825383301</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>81.92571892844562</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>73.93502158827363</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>44.64427371359996</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>328.6854015047033</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>73.93502158827329</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>44.64427371359994</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714829</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298273</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>73.93502158827343</v>
       </c>
       <c r="L30" t="n">
-        <v>221.7937232719991</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>44.64427371359994</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>141.8702522351969</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>296.9190496342879</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>276.6686509970792</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>294.0133792775025</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.64427371359994</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>403.0604638524732</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>138.3494283288182</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>118.8173947301631</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>24.53552825383298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>269.7600988518195</v>
+        <v>377.0652531244309</v>
       </c>
       <c r="N36" t="n">
-        <v>355.3600415532788</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>77.82773185668754</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.64427371359994</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>144.4970941133343</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>343.5525960807776</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>333.978018539512</v>
       </c>
       <c r="O38" t="n">
-        <v>364.9061931700164</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>174.1569946115932</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>24.53552825383298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>115.9055934294686</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0652531244311</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>184.202840147569</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>44.64427371359994</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.5955404195232</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>403.0604638524732</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>343.5525960807778</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>217.2644796101259</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>225.9771662934621</v>
       </c>
       <c r="M42" t="n">
-        <v>260.2960009954506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>355.3600415532788</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>44.64427371359994</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>84.89231739156833</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>126.0732090107164</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>24.53552825383298</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>197.8608159443313</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>196.9834198466087</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>44.64427371359994</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.5800952649291</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>332.72229934316</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>338.107580501332</v>
       </c>
       <c r="H11" t="n">
-        <v>141.7598689309111</v>
+        <v>234.1732092537701</v>
       </c>
       <c r="I11" t="n">
-        <v>19.06816042736662</v>
+        <v>19.06816042736664</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.56017879264775</v>
       </c>
       <c r="T11" t="n">
-        <v>135.6283281973159</v>
+        <v>135.628328197316</v>
       </c>
       <c r="U11" t="n">
-        <v>176.9485936600649</v>
+        <v>68.57137657973216</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>253.5985120715835</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>308.5800952649291</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>291.119145372456</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.5292952221315</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>332.72229934316</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.337212183137297</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.1732092537701</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>19.06816042736664</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>135.628328197316</v>
       </c>
       <c r="U14" t="n">
-        <v>176.9485936600649</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>275.0872223188616</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>170.2211304043026</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.5800952649291</v>
       </c>
       <c r="C17" t="n">
-        <v>291.119145372456</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>338.107580501332</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>234.1732092537702</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19.06816042736662</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>65.56017879264776</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.628328197316</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>176.9485936600649</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>115.9059576512889</v>
       </c>
       <c r="W17" t="n">
-        <v>232.2392502688229</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>312.0841922575021</v>
       </c>
     </row>
     <row r="18">
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>77.59543406211412</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>19.06816042736662</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>65.56017879264776</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>51.59354765788852</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.0872223188616</v>
       </c>
       <c r="X20" t="n">
-        <v>295.5773542799176</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>142.3143142528258</v>
       </c>
       <c r="D28" t="n">
-        <v>4.99227187143795</v>
+        <v>123.6829661724103</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>121.5014558007671</v>
       </c>
       <c r="F28" t="n">
         <v>120.4885411771292</v>
       </c>
       <c r="G28" t="n">
-        <v>141.6942004149547</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1650464657052</v>
+        <v>50.60803138407967</v>
       </c>
       <c r="I28" t="n">
-        <v>89.49058536147234</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.01825002923917</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>175.3085492703089</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>200.7771485432351</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>193.6521465062928</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.8994733361353</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>123.6829661724103</v>
+        <v>123.6829661724104</v>
       </c>
       <c r="E31" t="n">
-        <v>121.5014558007671</v>
+        <v>121.5014558007672</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>120.4885411771293</v>
       </c>
       <c r="G31" t="n">
-        <v>141.6942004149547</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>125.1650464657052</v>
       </c>
       <c r="I31" t="n">
-        <v>89.49058536147233</v>
+        <v>89.49058536147238</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.01825002923923</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>175.308549270309</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>261.3121076689961</v>
       </c>
       <c r="V31" t="n">
-        <v>227.205136478026</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>189.8348638997174</v>
+        <v>65.50622598316104</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>153.1205027818397</v>
       </c>
       <c r="C34" t="n">
         <v>140.5353436985303</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.9039956181148</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>118.7095706228337</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>139.9152298606592</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>89.23927947494363</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>83.37642863366773</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>129.9324578967928</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>198.9981779889396</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>191.8731759519972</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>308.5800952649291</v>
       </c>
       <c r="C35" t="n">
-        <v>291.1191453724561</v>
+        <v>291.119145372456</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>332.72229934316</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>234.1732092537701</v>
       </c>
       <c r="I35" t="n">
-        <v>19.06816042736664</v>
+        <v>19.06816042736658</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>135.628328197316</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>101.9962032296785</v>
+        <v>261.7667355052255</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25397,19 +25397,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>307.7766236737103</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>314.8514322408917</v>
+        <v>338.1075805013319</v>
       </c>
       <c r="H38" t="n">
         <v>234.1732092537701</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>19.06816042736658</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25442,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>135.6283281973159</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>253.5985120715835</v>
+        <v>79.95344377025236</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>312.0841922575021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25628,25 +25628,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>316.0516522182581</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>332.7091305195124</v>
+        <v>332.7091305195123</v>
       </c>
       <c r="F41" t="n">
-        <v>357.654806188962</v>
+        <v>296.5781572563745</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1057160995722</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.00066727316867</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.49268563844981</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>201.8811005058669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25691,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>88.68029057285469</v>
+        <v>320.5098611257196</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>337.0166991033041</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>56.25028502418201</v>
+        <v>118.0255815458784</v>
       </c>
       <c r="D43" t="n">
-        <v>99.39423346546296</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.21272309381972</v>
       </c>
       <c r="F43" t="n">
-        <v>96.19980847018185</v>
+        <v>96.19980847018179</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>117.4054677080073</v>
       </c>
       <c r="H43" t="n">
-        <v>100.8763137587578</v>
+        <v>100.8763137587577</v>
       </c>
       <c r="I43" t="n">
-        <v>65.20185265452497</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>64.69101463275125</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>176.4884158362877</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.5126021107312</v>
+        <v>333.5126021107311</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>316.051652218258</v>
       </c>
       <c r="D44" t="n">
-        <v>299.1733559567818</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>332.7091305195124</v>
+        <v>332.7091305195123</v>
       </c>
       <c r="F44" t="n">
-        <v>357.654806188962</v>
+        <v>357.6548061889619</v>
       </c>
       <c r="G44" t="n">
-        <v>363.040087347134</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>259.1057160995721</v>
       </c>
       <c r="I44" t="n">
-        <v>44.00066727316867</v>
+        <v>44.00066727316856</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.4926856384497</v>
       </c>
       <c r="T44" t="n">
-        <v>160.560835043118</v>
+        <v>160.5608350431179</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>38.54223155597029</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>278.5310189173854</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>320.5098611257196</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>99.39423346546296</v>
+        <v>99.39423346546285</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21272309381978</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>96.19980847018185</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>117.4054677080074</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>100.8763137587578</v>
+        <v>100.8763137587577</v>
       </c>
       <c r="I46" t="n">
-        <v>65.20185265452497</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>237.3017587838415</v>
       </c>
       <c r="X46" t="n">
-        <v>18.12051005864259</v>
+        <v>156.8386032013331</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655234.0734466658</v>
+        <v>655234.0734466657</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655234.0734466658</v>
+        <v>655234.0734466657</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723215.0337440145</v>
+        <v>723215.0337440146</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757956.863191705</v>
+        <v>757956.8631917048</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655234.0734466659</v>
+        <v>655234.0734466658</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655234.0734466659</v>
+        <v>655234.0734466658</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618904.9715758625</v>
+        <v>618904.9715758624</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>539984.9220709972</v>
+        <v>539984.9220709973</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132606</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="D2" t="n">
-        <v>758843.1798091846</v>
+        <v>758843.1798091849</v>
       </c>
       <c r="E2" t="n">
+        <v>677387.7352514596</v>
+      </c>
+      <c r="F2" t="n">
         <v>677387.7352514595</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>677387.7352514594</v>
       </c>
-      <c r="G2" t="n">
-        <v>677387.7352514592</v>
-      </c>
       <c r="H2" t="n">
-        <v>730582.9360665709</v>
+        <v>730582.936066571</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="J2" t="n">
-        <v>733412.5203644347</v>
+        <v>733412.5203644345</v>
       </c>
       <c r="K2" t="n">
-        <v>733412.5203644349</v>
+        <v>733412.5203644348</v>
       </c>
       <c r="L2" t="n">
-        <v>734354.0685668706</v>
+        <v>734354.0685668708</v>
       </c>
       <c r="M2" t="n">
         <v>677387.7352514594</v>
       </c>
       <c r="N2" t="n">
-        <v>677387.7352514593</v>
+        <v>677387.7352514594</v>
       </c>
       <c r="O2" t="n">
-        <v>636655.1058811643</v>
+        <v>636655.1058811645</v>
       </c>
       <c r="P2" t="n">
-        <v>583459.9050660526</v>
+        <v>583459.9050660525</v>
       </c>
     </row>
     <row r="3">
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50228.80234045479</v>
+        <v>50228.80234045485</v>
       </c>
       <c r="I3" t="n">
-        <v>26877.21741334447</v>
+        <v>26877.21741334442</v>
       </c>
       <c r="J3" t="n">
-        <v>69723.53331190597</v>
+        <v>69723.53331190592</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1423.176443436432</v>
+        <v>1423.176443436483</v>
       </c>
       <c r="M3" t="n">
-        <v>80260.15660516584</v>
+        <v>80260.15660516583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419447.199162568</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419447.199162568</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>419232.5993800846</v>
+        <v>419946.1207682426</v>
       </c>
       <c r="E4" t="n">
-        <v>126052.9246576366</v>
+        <v>126528.4176356955</v>
       </c>
       <c r="F4" t="n">
-        <v>126052.9246576366</v>
+        <v>126528.4176356955</v>
       </c>
       <c r="G4" t="n">
-        <v>126052.9246576366</v>
+        <v>126528.4176356955</v>
       </c>
       <c r="H4" t="n">
-        <v>146486.3502461189</v>
+        <v>147153.0236042115</v>
       </c>
       <c r="I4" t="n">
-        <v>157580.0513125123</v>
+        <v>158350.520188232</v>
       </c>
       <c r="J4" t="n">
-        <v>128721.5094110793</v>
+        <v>129687.3535040089</v>
       </c>
       <c r="K4" t="n">
-        <v>128721.5094110793</v>
+        <v>129687.3535040088</v>
       </c>
       <c r="L4" t="n">
-        <v>129764.5245149053</v>
+        <v>130723.3072911835</v>
       </c>
       <c r="M4" t="n">
-        <v>126052.9246576366</v>
+        <v>126528.4176356955</v>
       </c>
       <c r="N4" t="n">
-        <v>126052.9246576366</v>
+        <v>126528.4176356956</v>
       </c>
       <c r="O4" t="n">
-        <v>100857.486482102</v>
+        <v>101332.979460161</v>
       </c>
       <c r="P4" t="n">
-        <v>87023.99003457138</v>
+        <v>87206.46785730253</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26485,31 @@
         <v>62079.72915640283</v>
       </c>
       <c r="H5" t="n">
-        <v>73398.51830835718</v>
+        <v>73398.51830835719</v>
       </c>
       <c r="I5" t="n">
-        <v>79543.70736349514</v>
+        <v>79543.70736349515</v>
       </c>
       <c r="J5" t="n">
-        <v>86972.8704696877</v>
+        <v>86972.87046968768</v>
       </c>
       <c r="K5" t="n">
-        <v>86972.8704696877</v>
+        <v>86972.87046968768</v>
       </c>
       <c r="L5" t="n">
         <v>86704.36316412072</v>
       </c>
       <c r="M5" t="n">
-        <v>62079.72915640284</v>
+        <v>62079.72915640283</v>
       </c>
       <c r="N5" t="n">
-        <v>62079.72915640284</v>
+        <v>62079.72915640283</v>
       </c>
       <c r="O5" t="n">
-        <v>59983.67823838311</v>
+        <v>59983.6782383831</v>
       </c>
       <c r="P5" t="n">
-        <v>48664.88908642875</v>
+        <v>48664.88908642874</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304755.8141506924</v>
+        <v>304055.2444237294</v>
       </c>
       <c r="C6" t="n">
-        <v>304755.8141506923</v>
+        <v>304055.2444237293</v>
       </c>
       <c r="D6" t="n">
-        <v>303429.0107592562</v>
+        <v>302715.4893710984</v>
       </c>
       <c r="E6" t="n">
-        <v>-369085.1796078169</v>
+        <v>-369560.6725858757</v>
       </c>
       <c r="F6" t="n">
-        <v>489255.08143742</v>
+        <v>488779.5884593612</v>
       </c>
       <c r="G6" t="n">
-        <v>489255.0814374198</v>
+        <v>488779.5884593611</v>
       </c>
       <c r="H6" t="n">
-        <v>460469.26517164</v>
+        <v>459802.5918135475</v>
       </c>
       <c r="I6" t="n">
-        <v>495462.6610351107</v>
+        <v>494692.1921593906</v>
       </c>
       <c r="J6" t="n">
-        <v>447994.6071717617</v>
+        <v>447028.763078832</v>
       </c>
       <c r="K6" t="n">
-        <v>517718.1404836679</v>
+        <v>516752.2963907384</v>
       </c>
       <c r="L6" t="n">
-        <v>516462.0044444082</v>
+        <v>515503.2216681301</v>
       </c>
       <c r="M6" t="n">
-        <v>408994.9248322542</v>
+        <v>408519.4318541953</v>
       </c>
       <c r="N6" t="n">
-        <v>489255.0814374199</v>
+        <v>488779.5884593611</v>
       </c>
       <c r="O6" t="n">
-        <v>475813.9411606792</v>
+        <v>475338.4481826204</v>
       </c>
       <c r="P6" t="n">
-        <v>447771.0259450524</v>
+        <v>447588.5481223212</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F2" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G2" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H2" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I2" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J2" t="n">
         <v>24.93250684580204</v>
       </c>
       <c r="K2" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="L2" t="n">
         <v>26.71147740009758</v>
       </c>
       <c r="M2" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="N2" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="O2" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="P2" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>756.5508905438386</v>
+        <v>756.5508905438387</v>
       </c>
       <c r="F3" t="n">
-        <v>756.5508905438386</v>
+        <v>756.5508905438387</v>
       </c>
       <c r="G3" t="n">
         <v>756.5508905438386</v>
@@ -26759,7 +26759,7 @@
         <v>756.5508905438386</v>
       </c>
       <c r="J3" t="n">
-        <v>756.5508905438386</v>
+        <v>756.5508905438387</v>
       </c>
       <c r="K3" t="n">
         <v>756.5508905438387</v>
@@ -26805,10 +26805,10 @@
         <v>647.2514545488046</v>
       </c>
       <c r="H4" t="n">
-        <v>833.4157498112118</v>
+        <v>833.415749811212</v>
       </c>
       <c r="I4" t="n">
-        <v>934.4879382180862</v>
+        <v>934.4879382180864</v>
       </c>
       <c r="J4" t="n">
         <v>1124.737008845597</v>
@@ -26820,16 +26820,16 @@
         <v>1117.860963103885</v>
       </c>
       <c r="M4" t="n">
-        <v>647.2514545488049</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="N4" t="n">
-        <v>647.2514545488049</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="O4" t="n">
-        <v>647.2514545488049</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="P4" t="n">
-        <v>461.0871592863978</v>
+        <v>461.0871592863974</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.77897055429554</v>
+        <v>1.778970554295604</v>
       </c>
       <c r="M2" t="n">
-        <v>47.44226899845386</v>
+        <v>47.44226899845391</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>756.5508905438386</v>
+        <v>756.5508905438387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>186.1642952624071</v>
+        <v>186.1642952624073</v>
       </c>
       <c r="I4" t="n">
-        <v>101.0721884068745</v>
+        <v>101.0721884068743</v>
       </c>
       <c r="J4" t="n">
-        <v>190.2490706275104</v>
+        <v>190.2490706275103</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>169.7659002520134</v>
+        <v>169.7659002520132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1642952624071</v>
+        <v>186.1642952624073</v>
       </c>
     </row>
   </sheetData>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>142.9930721994382</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>380.1815175667542</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>160.4767625605679</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27995,10 +27995,10 @@
         <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.3728660142628</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>16.21307073658342</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X10" t="n">
-        <v>219.6532342997377</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="K13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="L13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="M13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="N13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="O13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="P13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="R13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="S13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y14" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="K16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="L16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="M16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="N16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="O16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="P16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="R16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="S16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y17" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="K19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="L19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.1537463985519</v>
       </c>
       <c r="M19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="N19" t="n">
-        <v>74.15374639855099</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="O19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="P19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="R19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="S19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y20" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="K22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="L22" t="n">
-        <v>74.15374639855111</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="M22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="N22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="O22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855196</v>
       </c>
       <c r="P22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="R22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="S22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y22" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y23" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="C25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="D25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="E25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="F25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="G25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="H25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="I25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="J25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="K25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="L25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="M25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="N25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="O25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855196</v>
       </c>
       <c r="P25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="R25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="S25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="T25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="U25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="V25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="W25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="X25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
       <c r="Y25" t="n">
-        <v>74.15374639855148</v>
+        <v>74.15374639855145</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="C29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="D29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="E29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="F29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="G29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="H29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="I29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="T29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="U29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="V29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="W29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="X29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="Y29" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="C31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="D31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="E31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="F31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="G31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="H31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="I31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="J31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="K31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="L31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="M31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="N31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="O31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="P31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="R31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="S31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="T31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="U31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="V31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="W31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="X31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.93250684580204</v>
+        <v>24.93250684580198</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="C35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="D35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="E35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="F35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="G35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="H35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="I35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="T35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="U35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="V35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="W35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="X35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="Y35" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="C37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="D37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="E37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="F37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="G37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="H37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="I37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="J37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="K37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="L37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855034</v>
       </c>
       <c r="M37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="N37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="O37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="P37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="R37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="S37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="T37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="U37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="V37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="W37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="X37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="Y37" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="C38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="D38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="E38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="F38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="G38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="H38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="I38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="T38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="U38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="V38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="W38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="X38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="Y38" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="C40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="D40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="E40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="F40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="G40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="H40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="I40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="J40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="K40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="L40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="M40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="N40" t="n">
-        <v>74.15374639855185</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="O40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="P40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="R40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="S40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="T40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="U40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="V40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="W40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="X40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.15374639855143</v>
+        <v>74.15374639855149</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="C41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="D41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="E41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="F41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="G41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="H41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="I41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="T41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="U41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="V41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="W41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="X41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="C43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="D43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="E43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="F43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="G43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="H43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="I43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="J43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="K43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="L43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="M43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="N43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="O43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="P43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="R43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="S43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="T43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="U43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="V43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="W43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="X43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274945</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="C44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="D44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="E44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="F44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="G44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="H44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="I44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="T44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="U44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="V44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="W44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="X44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="Y44" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="C45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="D45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="E45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="F45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="G45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="H45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="I45" t="n">
         <v>33.3690433158572</v>
@@ -30824,25 +30824,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="T45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="U45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="V45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="W45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="X45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="C46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="D46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="E46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="F46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="G46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="H46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="I46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="J46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="K46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="L46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="M46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="N46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="O46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="P46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="R46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="S46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="T46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="U46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="V46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="W46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="X46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.2212395527494</v>
+        <v>49.22123955274951</v>
       </c>
     </row>
   </sheetData>
@@ -31762,31 +31762,31 @@
         <v>258.1359242062116</v>
       </c>
       <c r="K11" t="n">
-        <v>386.8788355498123</v>
+        <v>386.8788355498124</v>
       </c>
       <c r="L11" t="n">
         <v>479.9574056663189</v>
       </c>
       <c r="M11" t="n">
-        <v>534.0450916952997</v>
+        <v>534.0450916952998</v>
       </c>
       <c r="N11" t="n">
-        <v>542.6864996058833</v>
+        <v>542.6864996058835</v>
       </c>
       <c r="O11" t="n">
-        <v>512.4434728004751</v>
+        <v>512.4434728004752</v>
       </c>
       <c r="P11" t="n">
         <v>437.358648236451</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.4381305777525</v>
+        <v>328.4381305777526</v>
       </c>
       <c r="R11" t="n">
         <v>191.0500095602991</v>
       </c>
       <c r="S11" t="n">
-        <v>69.30614439504613</v>
+        <v>69.30614439504615</v>
       </c>
       <c r="T11" t="n">
         <v>13.31377496826393</v>
@@ -31832,7 +31832,7 @@
         <v>1.627298141924483</v>
       </c>
       <c r="H12" t="n">
-        <v>15.7162741601654</v>
+        <v>15.71627416016541</v>
       </c>
       <c r="I12" t="n">
         <v>56.02758953555787</v>
@@ -31841,34 +31841,34 @@
         <v>153.7439880491022</v>
       </c>
       <c r="K12" t="n">
-        <v>262.7729635580425</v>
+        <v>262.7729635580426</v>
       </c>
       <c r="L12" t="n">
         <v>353.3306777016296</v>
       </c>
       <c r="M12" t="n">
-        <v>412.320235346392</v>
+        <v>412.3202353463921</v>
       </c>
       <c r="N12" t="n">
-        <v>423.2331250788593</v>
+        <v>423.2331250788594</v>
       </c>
       <c r="O12" t="n">
-        <v>387.1756241446378</v>
+        <v>387.1756241446379</v>
       </c>
       <c r="P12" t="n">
         <v>310.7425723820533</v>
       </c>
       <c r="Q12" t="n">
-        <v>207.7231803621498</v>
+        <v>207.7231803621499</v>
       </c>
       <c r="R12" t="n">
         <v>101.035230250364</v>
       </c>
       <c r="S12" t="n">
-        <v>30.22634925899202</v>
+        <v>30.22634925899203</v>
       </c>
       <c r="T12" t="n">
-        <v>6.559153475564032</v>
+        <v>6.559153475564033</v>
       </c>
       <c r="U12" t="n">
         <v>0.1070590882845055</v>
@@ -31914,10 +31914,10 @@
         <v>12.12961919593237</v>
       </c>
       <c r="I13" t="n">
-        <v>41.02738271998391</v>
+        <v>41.02738271998392</v>
       </c>
       <c r="J13" t="n">
-        <v>96.45403730753166</v>
+        <v>96.45403730753168</v>
       </c>
       <c r="K13" t="n">
         <v>158.5036128057419</v>
@@ -31926,10 +31926,10 @@
         <v>202.8300535074416</v>
       </c>
       <c r="M13" t="n">
-        <v>213.8558525515968</v>
+        <v>213.8558525515969</v>
       </c>
       <c r="N13" t="n">
-        <v>208.7708383692531</v>
+        <v>208.7708383692532</v>
       </c>
       <c r="O13" t="n">
         <v>192.8336597733706</v>
@@ -31941,16 +31941,16 @@
         <v>114.2391844721196</v>
       </c>
       <c r="R13" t="n">
-        <v>61.34263450212827</v>
+        <v>61.34263450212828</v>
       </c>
       <c r="S13" t="n">
         <v>23.77554192086128</v>
       </c>
       <c r="T13" t="n">
-        <v>5.829162599272196</v>
+        <v>5.829162599272197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07441484169283666</v>
+        <v>0.07441484169283667</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31999,31 +31999,31 @@
         <v>258.1359242062116</v>
       </c>
       <c r="K14" t="n">
-        <v>386.8788355498123</v>
+        <v>386.8788355498124</v>
       </c>
       <c r="L14" t="n">
         <v>479.9574056663189</v>
       </c>
       <c r="M14" t="n">
-        <v>534.0450916952997</v>
+        <v>534.0450916952998</v>
       </c>
       <c r="N14" t="n">
-        <v>542.6864996058833</v>
+        <v>542.6864996058835</v>
       </c>
       <c r="O14" t="n">
-        <v>512.4434728004751</v>
+        <v>512.4434728004752</v>
       </c>
       <c r="P14" t="n">
         <v>437.358648236451</v>
       </c>
       <c r="Q14" t="n">
-        <v>328.4381305777525</v>
+        <v>328.4381305777526</v>
       </c>
       <c r="R14" t="n">
         <v>191.0500095602991</v>
       </c>
       <c r="S14" t="n">
-        <v>69.30614439504613</v>
+        <v>69.30614439504615</v>
       </c>
       <c r="T14" t="n">
         <v>13.31377496826393</v>
@@ -32069,7 +32069,7 @@
         <v>1.627298141924483</v>
       </c>
       <c r="H15" t="n">
-        <v>15.7162741601654</v>
+        <v>15.71627416016541</v>
       </c>
       <c r="I15" t="n">
         <v>56.02758953555787</v>
@@ -32078,34 +32078,34 @@
         <v>153.7439880491022</v>
       </c>
       <c r="K15" t="n">
-        <v>262.7729635580425</v>
+        <v>262.7729635580426</v>
       </c>
       <c r="L15" t="n">
         <v>353.3306777016296</v>
       </c>
       <c r="M15" t="n">
-        <v>412.320235346392</v>
+        <v>412.3202353463921</v>
       </c>
       <c r="N15" t="n">
-        <v>423.2331250788593</v>
+        <v>423.2331250788594</v>
       </c>
       <c r="O15" t="n">
-        <v>387.1756241446378</v>
+        <v>387.1756241446379</v>
       </c>
       <c r="P15" t="n">
         <v>310.7425723820533</v>
       </c>
       <c r="Q15" t="n">
-        <v>207.7231803621498</v>
+        <v>207.7231803621499</v>
       </c>
       <c r="R15" t="n">
         <v>101.035230250364</v>
       </c>
       <c r="S15" t="n">
-        <v>30.22634925899202</v>
+        <v>30.22634925899203</v>
       </c>
       <c r="T15" t="n">
-        <v>6.559153475564032</v>
+        <v>6.559153475564033</v>
       </c>
       <c r="U15" t="n">
         <v>0.1070590882845055</v>
@@ -32151,10 +32151,10 @@
         <v>12.12961919593237</v>
       </c>
       <c r="I16" t="n">
-        <v>41.02738271998391</v>
+        <v>41.02738271998392</v>
       </c>
       <c r="J16" t="n">
-        <v>96.45403730753166</v>
+        <v>96.45403730753168</v>
       </c>
       <c r="K16" t="n">
         <v>158.5036128057419</v>
@@ -32163,10 +32163,10 @@
         <v>202.8300535074416</v>
       </c>
       <c r="M16" t="n">
-        <v>213.8558525515968</v>
+        <v>213.8558525515969</v>
       </c>
       <c r="N16" t="n">
-        <v>208.7708383692531</v>
+        <v>208.7708383692532</v>
       </c>
       <c r="O16" t="n">
         <v>192.8336597733706</v>
@@ -32178,16 +32178,16 @@
         <v>114.2391844721196</v>
       </c>
       <c r="R16" t="n">
-        <v>61.34263450212827</v>
+        <v>61.34263450212828</v>
       </c>
       <c r="S16" t="n">
         <v>23.77554192086128</v>
       </c>
       <c r="T16" t="n">
-        <v>5.829162599272196</v>
+        <v>5.829162599272197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07441484169283666</v>
+        <v>0.07441484169283667</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32947,31 +32947,31 @@
         <v>258.1359242062116</v>
       </c>
       <c r="K26" t="n">
-        <v>386.8788355498123</v>
+        <v>386.8788355498124</v>
       </c>
       <c r="L26" t="n">
         <v>479.9574056663189</v>
       </c>
       <c r="M26" t="n">
-        <v>534.0450916952997</v>
+        <v>534.0450916952998</v>
       </c>
       <c r="N26" t="n">
-        <v>542.6864996058833</v>
+        <v>542.6864996058835</v>
       </c>
       <c r="O26" t="n">
-        <v>512.4434728004751</v>
+        <v>512.4434728004752</v>
       </c>
       <c r="P26" t="n">
         <v>437.358648236451</v>
       </c>
       <c r="Q26" t="n">
-        <v>328.4381305777525</v>
+        <v>328.4381305777526</v>
       </c>
       <c r="R26" t="n">
         <v>191.0500095602991</v>
       </c>
       <c r="S26" t="n">
-        <v>69.30614439504613</v>
+        <v>69.30614439504615</v>
       </c>
       <c r="T26" t="n">
         <v>13.31377496826393</v>
@@ -33017,7 +33017,7 @@
         <v>1.627298141924483</v>
       </c>
       <c r="H27" t="n">
-        <v>15.7162741601654</v>
+        <v>15.71627416016541</v>
       </c>
       <c r="I27" t="n">
         <v>56.02758953555787</v>
@@ -33026,34 +33026,34 @@
         <v>153.7439880491022</v>
       </c>
       <c r="K27" t="n">
-        <v>262.7729635580425</v>
+        <v>262.7729635580426</v>
       </c>
       <c r="L27" t="n">
         <v>353.3306777016296</v>
       </c>
       <c r="M27" t="n">
-        <v>412.320235346392</v>
+        <v>412.3202353463921</v>
       </c>
       <c r="N27" t="n">
-        <v>423.2331250788593</v>
+        <v>423.2331250788594</v>
       </c>
       <c r="O27" t="n">
-        <v>387.1756241446378</v>
+        <v>387.1756241446379</v>
       </c>
       <c r="P27" t="n">
         <v>310.7425723820533</v>
       </c>
       <c r="Q27" t="n">
-        <v>207.7231803621498</v>
+        <v>207.7231803621499</v>
       </c>
       <c r="R27" t="n">
         <v>101.035230250364</v>
       </c>
       <c r="S27" t="n">
-        <v>30.22634925899202</v>
+        <v>30.22634925899203</v>
       </c>
       <c r="T27" t="n">
-        <v>6.559153475564032</v>
+        <v>6.559153475564033</v>
       </c>
       <c r="U27" t="n">
         <v>0.1070590882845055</v>
@@ -33099,10 +33099,10 @@
         <v>12.12961919593237</v>
       </c>
       <c r="I28" t="n">
-        <v>41.02738271998391</v>
+        <v>41.02738271998392</v>
       </c>
       <c r="J28" t="n">
-        <v>96.45403730753166</v>
+        <v>96.45403730753168</v>
       </c>
       <c r="K28" t="n">
         <v>158.5036128057419</v>
@@ -33111,10 +33111,10 @@
         <v>202.8300535074416</v>
       </c>
       <c r="M28" t="n">
-        <v>213.8558525515968</v>
+        <v>213.8558525515969</v>
       </c>
       <c r="N28" t="n">
-        <v>208.7708383692531</v>
+        <v>208.7708383692532</v>
       </c>
       <c r="O28" t="n">
         <v>192.8336597733706</v>
@@ -33126,16 +33126,16 @@
         <v>114.2391844721196</v>
       </c>
       <c r="R28" t="n">
-        <v>61.34263450212827</v>
+        <v>61.34263450212828</v>
       </c>
       <c r="S28" t="n">
         <v>23.77554192086128</v>
       </c>
       <c r="T28" t="n">
-        <v>5.829162599272196</v>
+        <v>5.829162599272197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07441484169283666</v>
+        <v>0.07441484169283667</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
@@ -35255,13 +35255,13 @@
         <v>6.598225711743296</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>77.09001967952531</v>
+        <v>246.1866348515991</v>
       </c>
       <c r="K11" t="n">
-        <v>490.9343970759965</v>
+        <v>490.9343970759966</v>
       </c>
       <c r="L11" t="n">
         <v>244.1909906963317</v>
       </c>
       <c r="M11" t="n">
-        <v>303.698858468027</v>
+        <v>303.6988584680271</v>
       </c>
       <c r="N11" t="n">
-        <v>313.2734360092924</v>
+        <v>313.2734360092925</v>
       </c>
       <c r="O11" t="n">
-        <v>282.3452613787883</v>
+        <v>439.9968433284187</v>
       </c>
       <c r="P11" t="n">
-        <v>527.9243606526641</v>
+        <v>206.1256524811815</v>
       </c>
       <c r="Q11" t="n">
-        <v>282.2160286942801</v>
+        <v>318.4474313632078</v>
       </c>
       <c r="R11" t="n">
-        <v>41.18089161914943</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>152.9973967228443</v>
       </c>
       <c r="K12" t="n">
-        <v>124.9315245836835</v>
+        <v>183.7369396019322</v>
       </c>
       <c r="L12" t="n">
-        <v>251.8765013688518</v>
+        <v>214.7762979217554</v>
       </c>
       <c r="M12" t="n">
+        <v>270.1862014243737</v>
+      </c>
+      <c r="N12" t="n">
         <v>647.2514545488046</v>
-      </c>
-      <c r="N12" t="n">
-        <v>291.891412995526</v>
       </c>
       <c r="O12" t="n">
         <v>638.4416989769229</v>
@@ -35510,7 +35510,7 @@
         <v>277.8186940119774</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8773960977208617</v>
+        <v>0.8773960977208759</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>77.24860358941037</v>
+        <v>77.24860358941035</v>
       </c>
       <c r="K13" t="n">
         <v>210.3878673784105</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>213.0927436086612</v>
+        <v>77.09001967952531</v>
       </c>
       <c r="K14" t="n">
-        <v>490.9343970759965</v>
+        <v>166.7889845048318</v>
       </c>
       <c r="L14" t="n">
         <v>647.2514545488046</v>
       </c>
       <c r="M14" t="n">
-        <v>303.698858468027</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="N14" t="n">
-        <v>313.2734360092924</v>
+        <v>313.2734360092925</v>
       </c>
       <c r="O14" t="n">
-        <v>282.3452613787883</v>
+        <v>357.7599101791619</v>
       </c>
       <c r="P14" t="n">
-        <v>206.1256524811814</v>
+        <v>206.1256524811815</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.132440703303</v>
+        <v>106.1324407033031</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>41.18089161914946</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>67.83682032578143</v>
+        <v>26.90636138243551</v>
       </c>
       <c r="K15" t="n">
-        <v>124.9315245836835</v>
+        <v>124.9315245836836</v>
       </c>
       <c r="L15" t="n">
-        <v>585.6166432252146</v>
+        <v>214.7762979217554</v>
       </c>
       <c r="M15" t="n">
         <v>647.2514545488046</v>
@@ -35738,16 +35738,16 @@
         <v>647.2514545488046</v>
       </c>
       <c r="O15" t="n">
-        <v>244.5793797001934</v>
+        <v>638.4416989769229</v>
       </c>
       <c r="P15" t="n">
         <v>176.7681649677231</v>
       </c>
       <c r="Q15" t="n">
-        <v>67.74140627612832</v>
+        <v>85.64989124620389</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8773960977208617</v>
+        <v>0.8773960977208759</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.24860358941037</v>
+        <v>77.24860358941035</v>
       </c>
       <c r="K16" t="n">
         <v>210.3878673784105</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>246.1866348515991</v>
+        <v>77.09001967952531</v>
       </c>
       <c r="K17" t="n">
-        <v>263.8524913257004</v>
+        <v>166.7889845048318</v>
       </c>
       <c r="L17" t="n">
         <v>244.1909906963317</v>
@@ -35893,7 +35893,7 @@
         <v>647.2514545488046</v>
       </c>
       <c r="N17" t="n">
-        <v>313.2734360092924</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="O17" t="n">
         <v>282.3452613787883</v>
@@ -35902,7 +35902,7 @@
         <v>206.1256524811814</v>
       </c>
       <c r="Q17" t="n">
-        <v>318.4474313632077</v>
+        <v>250.6295348166376</v>
       </c>
       <c r="R17" t="n">
         <v>41.18089161914943</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>26.90636138243548</v>
+        <v>152.9973967228443</v>
       </c>
       <c r="K18" t="n">
         <v>389.3967615962621</v>
       </c>
       <c r="L18" t="n">
-        <v>585.6166432252146</v>
+        <v>214.7762979217554</v>
       </c>
       <c r="M18" t="n">
-        <v>270.1862014243737</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="N18" t="n">
         <v>647.2514545488046</v>
@@ -35978,10 +35978,10 @@
         <v>244.5793797001934</v>
       </c>
       <c r="P18" t="n">
-        <v>330.2986400229215</v>
+        <v>176.7681649677231</v>
       </c>
       <c r="Q18" t="n">
-        <v>67.74140627612832</v>
+        <v>88.95593816994577</v>
       </c>
       <c r="R18" t="n">
         <v>0.8773960977208617</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.24860358941037</v>
+        <v>77.24860358941034</v>
       </c>
       <c r="K19" t="n">
         <v>210.3878673784105</v>
       </c>
       <c r="L19" t="n">
-        <v>304.5738251663092</v>
+        <v>304.5738251663096</v>
       </c>
       <c r="M19" t="n">
         <v>327.5934759119889</v>
       </c>
       <c r="N19" t="n">
-        <v>327.0567571470327</v>
+        <v>327.0567571470332</v>
       </c>
       <c r="O19" t="n">
         <v>291.5725340859617</v>
@@ -36121,28 +36121,28 @@
         <v>77.09001967952531</v>
       </c>
       <c r="K20" t="n">
-        <v>490.9343970759965</v>
+        <v>166.7889845048318</v>
       </c>
       <c r="L20" t="n">
-        <v>244.1909906963317</v>
+        <v>661.8522052467821</v>
       </c>
       <c r="M20" t="n">
-        <v>303.698858468027</v>
+        <v>753.2123919608595</v>
       </c>
       <c r="N20" t="n">
         <v>750.6203604212766</v>
       </c>
       <c r="O20" t="n">
-        <v>663.1454426415337</v>
+        <v>536.9866889992032</v>
       </c>
       <c r="P20" t="n">
-        <v>527.9243606526641</v>
+        <v>206.1256524811814</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.3852059807566</v>
+        <v>106.132440703303</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>41.18089161914943</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>124.9315245836835</v>
       </c>
       <c r="L21" t="n">
-        <v>214.7762979217554</v>
+        <v>585.6166432252146</v>
       </c>
       <c r="M21" t="n">
-        <v>270.1862014243737</v>
+        <v>735.8912651743735</v>
       </c>
       <c r="N21" t="n">
-        <v>771.2337873390795</v>
+        <v>599.5421028665818</v>
       </c>
       <c r="O21" t="n">
-        <v>638.4416989769229</v>
+        <v>244.5793797001934</v>
       </c>
       <c r="P21" t="n">
-        <v>448.6369663696765</v>
+        <v>176.7681649677231</v>
       </c>
       <c r="Q21" t="n">
         <v>67.74140627612832</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.8773960977208617</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.24860358941037</v>
+        <v>77.24860358941034</v>
       </c>
       <c r="K22" t="n">
         <v>210.3878673784105</v>
       </c>
       <c r="L22" t="n">
-        <v>304.5738251663088</v>
+        <v>304.5738251663092</v>
       </c>
       <c r="M22" t="n">
         <v>327.5934759119889</v>
@@ -36291,7 +36291,7 @@
         <v>327.0567571470332</v>
       </c>
       <c r="O22" t="n">
-        <v>291.5725340859617</v>
+        <v>291.5725340859622</v>
       </c>
       <c r="P22" t="n">
         <v>236.4348146436945</v>
@@ -36358,28 +36358,28 @@
         <v>246.1866348515991</v>
       </c>
       <c r="K23" t="n">
-        <v>490.9343970759965</v>
+        <v>166.7889845048318</v>
       </c>
       <c r="L23" t="n">
         <v>661.8522052467821</v>
       </c>
       <c r="M23" t="n">
-        <v>380.7031218500295</v>
+        <v>753.2123919608595</v>
       </c>
       <c r="N23" t="n">
         <v>750.6203604212766</v>
       </c>
       <c r="O23" t="n">
-        <v>282.3452613787883</v>
+        <v>663.1454426415337</v>
       </c>
       <c r="P23" t="n">
-        <v>527.9243606526641</v>
+        <v>352.2562041293082</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.4474313632077</v>
+        <v>106.132440703303</v>
       </c>
       <c r="R23" t="n">
-        <v>41.18089161914943</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>108.8320803108811</v>
+        <v>152.9973967228443</v>
       </c>
       <c r="K24" t="n">
-        <v>389.3967615962621</v>
+        <v>198.8665461719572</v>
       </c>
       <c r="L24" t="n">
         <v>214.7762979217554</v>
       </c>
       <c r="M24" t="n">
-        <v>270.1862014243737</v>
+        <v>735.8912651743735</v>
       </c>
       <c r="N24" t="n">
         <v>771.2337873390795</v>
@@ -36452,13 +36452,13 @@
         <v>244.5793797001934</v>
       </c>
       <c r="P24" t="n">
-        <v>495.2309336076602</v>
+        <v>176.7681649677231</v>
       </c>
       <c r="Q24" t="n">
         <v>67.74140627612832</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8773960977208617</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.24860358941037</v>
+        <v>77.24860358941034</v>
       </c>
       <c r="K25" t="n">
         <v>210.3878673784105</v>
@@ -36528,7 +36528,7 @@
         <v>327.0567571470332</v>
       </c>
       <c r="O25" t="n">
-        <v>291.5725340859617</v>
+        <v>291.5725340859622</v>
       </c>
       <c r="P25" t="n">
         <v>236.4348146436945</v>
@@ -36595,28 +36595,28 @@
         <v>246.1866348515991</v>
       </c>
       <c r="K26" t="n">
-        <v>490.9343970759965</v>
+        <v>490.9343970759966</v>
       </c>
       <c r="L26" t="n">
-        <v>661.8522052467821</v>
+        <v>661.8522052467822</v>
       </c>
       <c r="M26" t="n">
-        <v>753.2123919608595</v>
+        <v>753.2123919608596</v>
       </c>
       <c r="N26" t="n">
-        <v>750.6203604212766</v>
+        <v>750.6203604212767</v>
       </c>
       <c r="O26" t="n">
-        <v>663.1454426415337</v>
+        <v>663.1454426415338</v>
       </c>
       <c r="P26" t="n">
         <v>527.9243606526641</v>
       </c>
       <c r="Q26" t="n">
-        <v>318.4474313632077</v>
+        <v>318.4474313632078</v>
       </c>
       <c r="R26" t="n">
-        <v>41.18089161914943</v>
+        <v>41.18089161914946</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>152.9973967228443</v>
       </c>
       <c r="K27" t="n">
-        <v>124.9315245836835</v>
+        <v>124.9315245836836</v>
       </c>
       <c r="L27" t="n">
         <v>214.7762979217554</v>
       </c>
       <c r="M27" t="n">
-        <v>270.1862014243737</v>
+        <v>735.8912651743736</v>
       </c>
       <c r="N27" t="n">
         <v>771.2337873390795</v>
       </c>
       <c r="O27" t="n">
-        <v>573.2647812048967</v>
+        <v>244.5793797001934</v>
       </c>
       <c r="P27" t="n">
         <v>176.7681649677231</v>
       </c>
       <c r="Q27" t="n">
-        <v>277.8186940119774</v>
+        <v>141.6764278644016</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8773960977208617</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>28.02736403666093</v>
+        <v>28.02736403666094</v>
       </c>
       <c r="K28" t="n">
         <v>161.1666278256611</v>
@@ -36759,7 +36759,7 @@
         <v>255.3525856135598</v>
       </c>
       <c r="M28" t="n">
-        <v>278.3722363592394</v>
+        <v>278.3722363592395</v>
       </c>
       <c r="N28" t="n">
         <v>277.8355175942838</v>
@@ -36771,7 +36771,7 @@
         <v>187.2135750909451</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.00964806622727</v>
+        <v>53.0096480662273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>663.1454426415338</v>
       </c>
       <c r="P29" t="n">
-        <v>527.9243606526644</v>
+        <v>527.9243606526641</v>
       </c>
       <c r="Q29" t="n">
         <v>318.4474313632078</v>
       </c>
       <c r="R29" t="n">
-        <v>41.18089161914946</v>
+        <v>41.18089161914975</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>26.90636138243551</v>
+        <v>152.9973967228443</v>
       </c>
       <c r="K30" t="n">
-        <v>124.9315245836836</v>
+        <v>198.866546171957</v>
       </c>
       <c r="L30" t="n">
-        <v>436.5700211937545</v>
+        <v>214.7762979217554</v>
       </c>
       <c r="M30" t="n">
-        <v>270.1862014243737</v>
+        <v>735.8912651743736</v>
       </c>
       <c r="N30" t="n">
-        <v>291.891412995526</v>
+        <v>771.2337873390795</v>
       </c>
       <c r="O30" t="n">
-        <v>638.4416989769229</v>
+        <v>244.5793797001934</v>
       </c>
       <c r="P30" t="n">
-        <v>495.2309336076602</v>
+        <v>176.7681649677231</v>
       </c>
       <c r="Q30" t="n">
-        <v>277.8186940119774</v>
+        <v>67.74140627612834</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8773960977208759</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>28.02736403666094</v>
+        <v>28.02736403666088</v>
       </c>
       <c r="K31" t="n">
-        <v>161.1666278256611</v>
+        <v>161.166627825661</v>
       </c>
       <c r="L31" t="n">
-        <v>255.3525856135598</v>
+        <v>255.3525856135597</v>
       </c>
       <c r="M31" t="n">
-        <v>278.3722363592395</v>
+        <v>278.3722363592394</v>
       </c>
       <c r="N31" t="n">
         <v>277.8355175942838</v>
@@ -37008,7 +37008,7 @@
         <v>187.2135750909451</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.0096480662273</v>
+        <v>53.00964806622724</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>218.9602719147222</v>
+        <v>246.1866348515991</v>
       </c>
       <c r="K32" t="n">
-        <v>490.9343970759966</v>
+        <v>463.7080341391197</v>
       </c>
       <c r="L32" t="n">
         <v>661.8522052467822</v>
@@ -37148,28 +37148,28 @@
         <v>26.90636138243551</v>
       </c>
       <c r="K33" t="n">
-        <v>389.3967615962622</v>
+        <v>124.9315245836836</v>
       </c>
       <c r="L33" t="n">
-        <v>491.4449489188347</v>
+        <v>585.6166432252146</v>
       </c>
       <c r="M33" t="n">
-        <v>270.1862014243737</v>
+        <v>564.1995807018762</v>
       </c>
       <c r="N33" t="n">
-        <v>291.891412995526</v>
+        <v>771.2337873390795</v>
       </c>
       <c r="O33" t="n">
-        <v>638.4416989769229</v>
+        <v>244.5793797001934</v>
       </c>
       <c r="P33" t="n">
         <v>176.7681649677231</v>
       </c>
       <c r="Q33" t="n">
-        <v>277.8186940119774</v>
+        <v>67.74140627612834</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.8773960977208759</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>77.09001967952531</v>
+        <v>246.1866348515991</v>
       </c>
       <c r="K35" t="n">
         <v>166.7889845048318</v>
       </c>
       <c r="L35" t="n">
-        <v>647.2514545488049</v>
+        <v>244.1909906963317</v>
       </c>
       <c r="M35" t="n">
         <v>303.6988584680271</v>
       </c>
       <c r="N35" t="n">
-        <v>451.6228643381108</v>
+        <v>313.2734360092925</v>
       </c>
       <c r="O35" t="n">
-        <v>282.3452613787885</v>
+        <v>401.1626561089515</v>
       </c>
       <c r="P35" t="n">
         <v>527.9243606526641</v>
       </c>
       <c r="Q35" t="n">
-        <v>106.1324407033031</v>
+        <v>318.4474313632078</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.18089161914946</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>152.9973967228443</v>
+        <v>26.90636138243551</v>
       </c>
       <c r="K36" t="n">
         <v>124.9315245836836</v>
       </c>
       <c r="L36" t="n">
-        <v>214.7762979217554</v>
+        <v>585.6166432252146</v>
       </c>
       <c r="M36" t="n">
-        <v>539.9463002761933</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="N36" t="n">
-        <v>647.2514545488049</v>
+        <v>291.891412995526</v>
       </c>
       <c r="O36" t="n">
-        <v>638.4416989769229</v>
+        <v>322.407111556881</v>
       </c>
       <c r="P36" t="n">
-        <v>176.7681649677231</v>
+        <v>495.2309336076602</v>
       </c>
       <c r="Q36" t="n">
         <v>67.74140627612834</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.8773960977208759</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.24860358941034</v>
+        <v>77.24860358941039</v>
       </c>
       <c r="K37" t="n">
         <v>210.3878673784105</v>
       </c>
       <c r="L37" t="n">
-        <v>304.5738251663092</v>
+        <v>304.5738251663081</v>
       </c>
       <c r="M37" t="n">
         <v>327.5934759119889</v>
       </c>
       <c r="N37" t="n">
-        <v>327.0567571470332</v>
+        <v>327.0567571470333</v>
       </c>
       <c r="O37" t="n">
-        <v>291.5725340859617</v>
+        <v>291.5725340859618</v>
       </c>
       <c r="P37" t="n">
-        <v>236.4348146436945</v>
+        <v>236.4348146436946</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.2308876189767</v>
+        <v>102.2308876189768</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>77.09001967952531</v>
+        <v>221.5871137928596</v>
       </c>
       <c r="K38" t="n">
-        <v>490.9343970759966</v>
+        <v>166.7889845048318</v>
       </c>
       <c r="L38" t="n">
         <v>244.1909906963317</v>
       </c>
       <c r="M38" t="n">
-        <v>303.6988584680271</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="N38" t="n">
-        <v>313.2734360092925</v>
+        <v>647.2514545488046</v>
       </c>
       <c r="O38" t="n">
-        <v>647.2514545488049</v>
+        <v>282.3452613787885</v>
       </c>
       <c r="P38" t="n">
         <v>206.1256524811815</v>
       </c>
       <c r="Q38" t="n">
-        <v>280.2894353148963</v>
+        <v>106.1324407033031</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.18089161914946</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>26.90636138243551</v>
+        <v>142.8119548119041</v>
       </c>
       <c r="K39" t="n">
         <v>389.3967615962622</v>
       </c>
       <c r="L39" t="n">
-        <v>214.7762979217554</v>
+        <v>585.6166432252146</v>
       </c>
       <c r="M39" t="n">
-        <v>647.2514545488049</v>
+        <v>270.1862014243737</v>
       </c>
       <c r="N39" t="n">
         <v>291.891412995526</v>
       </c>
       <c r="O39" t="n">
-        <v>428.7822198477624</v>
+        <v>638.4416989769229</v>
       </c>
       <c r="P39" t="n">
-        <v>495.2309336076602</v>
+        <v>176.7681649677231</v>
       </c>
       <c r="Q39" t="n">
         <v>67.74140627612834</v>
       </c>
       <c r="R39" t="n">
-        <v>0.8773960977208759</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.24860358941034</v>
+        <v>77.24860358941039</v>
       </c>
       <c r="K40" t="n">
         <v>210.3878673784105</v>
@@ -37710,16 +37710,16 @@
         <v>327.5934759119889</v>
       </c>
       <c r="N40" t="n">
-        <v>327.0567571470336</v>
+        <v>327.0567571470333</v>
       </c>
       <c r="O40" t="n">
-        <v>291.5725340859617</v>
+        <v>291.5725340859618</v>
       </c>
       <c r="P40" t="n">
-        <v>236.4348146436945</v>
+        <v>236.4348146436946</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.2308876189767</v>
+        <v>102.2308876189768</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>193.6855600990485</v>
+        <v>77.09001967952531</v>
       </c>
       <c r="K41" t="n">
-        <v>166.7889845048318</v>
+        <v>490.9343970759966</v>
       </c>
       <c r="L41" t="n">
-        <v>647.2514545488049</v>
+        <v>244.1909906963317</v>
       </c>
       <c r="M41" t="n">
-        <v>647.2514545488049</v>
+        <v>303.6988584680271</v>
       </c>
       <c r="N41" t="n">
         <v>313.2734360092925</v>
       </c>
       <c r="O41" t="n">
-        <v>282.3452613787885</v>
+        <v>499.6097409889143</v>
       </c>
       <c r="P41" t="n">
-        <v>206.1256524811815</v>
+        <v>527.9243606526641</v>
       </c>
       <c r="Q41" t="n">
         <v>106.1324407033031</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>26.90636138243551</v>
+        <v>152.9973967228443</v>
       </c>
       <c r="K42" t="n">
-        <v>124.9315245836836</v>
+        <v>389.3967615962622</v>
       </c>
       <c r="L42" t="n">
-        <v>214.7762979217554</v>
+        <v>440.7534642152175</v>
       </c>
       <c r="M42" t="n">
-        <v>530.4822024198244</v>
+        <v>270.1862014243737</v>
       </c>
       <c r="N42" t="n">
-        <v>647.2514545488049</v>
+        <v>291.891412995526</v>
       </c>
       <c r="O42" t="n">
         <v>244.5793797001934</v>
@@ -37880,7 +37880,7 @@
         <v>277.8186940119774</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8773960977208759</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.3160967436083</v>
+        <v>52.31609674360836</v>
       </c>
       <c r="K43" t="n">
-        <v>185.4553605326084</v>
+        <v>185.4553605326085</v>
       </c>
       <c r="L43" t="n">
-        <v>279.6413183205071</v>
+        <v>279.6413183205072</v>
       </c>
       <c r="M43" t="n">
         <v>302.6609690661869</v>
       </c>
       <c r="N43" t="n">
-        <v>302.1242503012312</v>
+        <v>302.1242503012313</v>
       </c>
       <c r="O43" t="n">
         <v>266.6400272401597</v>
@@ -37956,7 +37956,7 @@
         <v>211.5023077978925</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.29838077317466</v>
+        <v>77.29838077317471</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>77.09001967952531</v>
       </c>
       <c r="K44" t="n">
-        <v>251.6813018964002</v>
+        <v>166.7889845048318</v>
       </c>
       <c r="L44" t="n">
         <v>244.1909906963317</v>
@@ -38029,7 +38029,7 @@
         <v>313.2734360092925</v>
       </c>
       <c r="O44" t="n">
-        <v>282.3452613787885</v>
+        <v>408.4184703895048</v>
       </c>
       <c r="P44" t="n">
         <v>206.1256524811815</v>
@@ -38038,7 +38038,7 @@
         <v>106.1324407033031</v>
       </c>
       <c r="R44" t="n">
-        <v>41.18089161914946</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>26.90636138243551</v>
       </c>
       <c r="K45" t="n">
-        <v>322.7923405280148</v>
+        <v>124.9315245836836</v>
       </c>
       <c r="L45" t="n">
         <v>214.7762979217554</v>
@@ -38111,13 +38111,13 @@
         <v>244.5793797001934</v>
       </c>
       <c r="P45" t="n">
-        <v>176.7681649677231</v>
+        <v>373.7515848143318</v>
       </c>
       <c r="Q45" t="n">
         <v>277.8186940119774</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.8773960977208759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.3160967436083</v>
+        <v>52.31609674360841</v>
       </c>
       <c r="K46" t="n">
-        <v>185.4553605326084</v>
+        <v>185.4553605326086</v>
       </c>
       <c r="L46" t="n">
-        <v>279.6413183205071</v>
+        <v>279.6413183205073</v>
       </c>
       <c r="M46" t="n">
-        <v>302.6609690661869</v>
+        <v>302.660969066187</v>
       </c>
       <c r="N46" t="n">
-        <v>302.1242503012312</v>
+        <v>302.1242503012313</v>
       </c>
       <c r="O46" t="n">
-        <v>266.6400272401597</v>
+        <v>266.6400272401598</v>
       </c>
       <c r="P46" t="n">
-        <v>211.5023077978925</v>
+        <v>211.5023077978926</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.29838077317466</v>
+        <v>77.29838077317477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
